--- a/01_基本設計書/20200220リリース/SC-K12_進捗管理.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K12_進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C5B1D-EBAE-4259-B9A6-4272DD5BC518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5785C86-15A5-4444-B184-C5ED670D1500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="7" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'１．機能概要'!$1:$3</definedName>
@@ -3870,7 +3870,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -4184,15 +4184,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4295,6 +4286,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4325,46 +4357,23 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4384,24 +4393,6 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4420,13 +4411,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4435,11 +4426,47 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -5487,13 +5514,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>90</xdr:col>
       <xdr:colOff>103400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>27796</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5531,13 +5558,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>90</xdr:col>
       <xdr:colOff>93876</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>27796</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5575,13 +5602,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>90</xdr:col>
       <xdr:colOff>93876</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>37320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6302,108 +6329,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="145"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="145"/>
-      <c r="AT32" s="145"/>
-      <c r="AU32" s="145"/>
-      <c r="AV32" s="145"/>
-      <c r="AW32" s="145"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="142"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="142"/>
+      <c r="W32" s="142"/>
+      <c r="X32" s="142"/>
+      <c r="Y32" s="142"/>
+      <c r="Z32" s="142"/>
+      <c r="AA32" s="142"/>
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="142"/>
+      <c r="AD32" s="142"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="142"/>
+      <c r="AG32" s="142"/>
+      <c r="AH32" s="142"/>
+      <c r="AI32" s="142"/>
+      <c r="AJ32" s="142"/>
+      <c r="AK32" s="142"/>
+      <c r="AL32" s="142"/>
+      <c r="AM32" s="142"/>
+      <c r="AN32" s="142"/>
+      <c r="AO32" s="142"/>
+      <c r="AP32" s="142"/>
+      <c r="AQ32" s="142"/>
+      <c r="AR32" s="142"/>
+      <c r="AS32" s="142"/>
+      <c r="AT32" s="142"/>
+      <c r="AU32" s="142"/>
+      <c r="AV32" s="142"/>
+      <c r="AW32" s="142"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="146"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="146"/>
-      <c r="AF33" s="146"/>
-      <c r="AG33" s="146"/>
-      <c r="AH33" s="146"/>
-      <c r="AI33" s="146"/>
-      <c r="AJ33" s="146"/>
-      <c r="AK33" s="146"/>
-      <c r="AL33" s="146"/>
-      <c r="AM33" s="146"/>
-      <c r="AN33" s="146"/>
-      <c r="AO33" s="146"/>
-      <c r="AP33" s="146"/>
-      <c r="AQ33" s="146"/>
-      <c r="AR33" s="146"/>
-      <c r="AS33" s="146"/>
-      <c r="AT33" s="146"/>
-      <c r="AU33" s="146"/>
-      <c r="AV33" s="146"/>
-      <c r="AW33" s="146"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="143"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="143"/>
+      <c r="W33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="143"/>
+      <c r="Z33" s="143"/>
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="143"/>
+      <c r="AL33" s="143"/>
+      <c r="AM33" s="143"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="143"/>
+      <c r="AP33" s="143"/>
+      <c r="AQ33" s="143"/>
+      <c r="AR33" s="143"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="143"/>
+      <c r="AU33" s="143"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" s="143"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -6441,55 +6468,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="147"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="147"/>
-      <c r="Z35" s="147"/>
-      <c r="AA35" s="147"/>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="147"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="147"/>
-      <c r="AF35" s="147"/>
-      <c r="AG35" s="147"/>
-      <c r="AH35" s="147"/>
-      <c r="AI35" s="147"/>
-      <c r="AJ35" s="147"/>
-      <c r="AK35" s="147"/>
-      <c r="AL35" s="147"/>
-      <c r="AM35" s="147"/>
-      <c r="AN35" s="147"/>
-      <c r="AO35" s="147"/>
-      <c r="AP35" s="147"/>
-      <c r="AQ35" s="147"/>
-      <c r="AR35" s="147"/>
-      <c r="AS35" s="147"/>
-      <c r="AT35" s="147"/>
-      <c r="AU35" s="147"/>
-      <c r="AV35" s="147"/>
-      <c r="AW35" s="147"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="144"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="144"/>
+      <c r="V35" s="144"/>
+      <c r="W35" s="144"/>
+      <c r="X35" s="144"/>
+      <c r="Y35" s="144"/>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="144"/>
+      <c r="AB35" s="144"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="144"/>
+      <c r="AH35" s="144"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="144"/>
+      <c r="AK35" s="144"/>
+      <c r="AL35" s="144"/>
+      <c r="AM35" s="144"/>
+      <c r="AN35" s="144"/>
+      <c r="AO35" s="144"/>
+      <c r="AP35" s="144"/>
+      <c r="AQ35" s="144"/>
+      <c r="AR35" s="144"/>
+      <c r="AS35" s="144"/>
+      <c r="AT35" s="144"/>
+      <c r="AU35" s="144"/>
+      <c r="AV35" s="144"/>
+      <c r="AW35" s="144"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -6524,1770 +6551,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="148"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="148"/>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="148"/>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="160"/>
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="160"/>
+      <c r="AL1" s="160"/>
+      <c r="AM1" s="160"/>
+      <c r="AN1" s="160"/>
+      <c r="AO1" s="160"/>
+      <c r="AP1" s="160"/>
+      <c r="AQ1" s="160"/>
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
+      <c r="AT1" s="160"/>
+      <c r="AU1" s="160"/>
+      <c r="AV1" s="160"/>
+      <c r="AW1" s="160"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="149"/>
-      <c r="AO2" s="149"/>
-      <c r="AP2" s="149"/>
-      <c r="AQ2" s="149"/>
-      <c r="AR2" s="149"/>
-      <c r="AS2" s="149"/>
-      <c r="AT2" s="149"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="161"/>
+      <c r="AE2" s="161"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="161"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="161"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150" t="s">
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="152" t="s">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="153"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="152" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="150" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150" t="s">
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150" t="s">
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="162"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="162"/>
+      <c r="AL3" s="162"/>
+      <c r="AM3" s="162"/>
+      <c r="AN3" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="150" t="s">
+      <c r="AO3" s="162"/>
+      <c r="AP3" s="162"/>
+      <c r="AQ3" s="162"/>
+      <c r="AR3" s="162"/>
+      <c r="AS3" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="150"/>
+      <c r="AT3" s="162"/>
+      <c r="AU3" s="162"/>
+      <c r="AV3" s="162"/>
+      <c r="AW3" s="162"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="151"/>
-      <c r="AK4" s="151"/>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="159">
+      <c r="B5" s="146">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="160">
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="147">
         <v>43712</v>
       </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="161" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="158" t="s">
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="163" t="s">
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="163"/>
-      <c r="AN5" s="158" t="s">
+      <c r="W5" s="157"/>
+      <c r="X5" s="157"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="157"/>
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="157"/>
+      <c r="AM5" s="157"/>
+      <c r="AN5" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="AO5" s="158"/>
-      <c r="AP5" s="158"/>
-      <c r="AQ5" s="158"/>
-      <c r="AR5" s="158"/>
-      <c r="AS5" s="158"/>
-      <c r="AT5" s="158"/>
-      <c r="AU5" s="158"/>
-      <c r="AV5" s="158"/>
-      <c r="AW5" s="158"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="145"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="163"/>
-      <c r="AM6" s="163"/>
-      <c r="AN6" s="158"/>
-      <c r="AO6" s="158"/>
-      <c r="AP6" s="158"/>
-      <c r="AQ6" s="158"/>
-      <c r="AR6" s="158"/>
-      <c r="AS6" s="158"/>
-      <c r="AT6" s="158"/>
-      <c r="AU6" s="158"/>
-      <c r="AV6" s="158"/>
-      <c r="AW6" s="158"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
+      <c r="X6" s="157"/>
+      <c r="Y6" s="157"/>
+      <c r="Z6" s="157"/>
+      <c r="AA6" s="157"/>
+      <c r="AB6" s="157"/>
+      <c r="AC6" s="157"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="157"/>
+      <c r="AF6" s="157"/>
+      <c r="AG6" s="157"/>
+      <c r="AH6" s="157"/>
+      <c r="AI6" s="157"/>
+      <c r="AJ6" s="157"/>
+      <c r="AK6" s="157"/>
+      <c r="AL6" s="157"/>
+      <c r="AM6" s="157"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="145"/>
+      <c r="AP6" s="145"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="158"/>
-      <c r="AO7" s="158"/>
-      <c r="AP7" s="158"/>
-      <c r="AQ7" s="158"/>
-      <c r="AR7" s="158"/>
-      <c r="AS7" s="158"/>
-      <c r="AT7" s="158"/>
-      <c r="AU7" s="158"/>
-      <c r="AV7" s="158"/>
-      <c r="AW7" s="158"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="157"/>
+      <c r="AB7" s="157"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="157"/>
+      <c r="AF7" s="157"/>
+      <c r="AG7" s="157"/>
+      <c r="AH7" s="157"/>
+      <c r="AI7" s="157"/>
+      <c r="AJ7" s="157"/>
+      <c r="AK7" s="157"/>
+      <c r="AL7" s="157"/>
+      <c r="AM7" s="157"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="145"/>
+      <c r="AP7" s="145"/>
+      <c r="AQ7" s="145"/>
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="145"/>
+      <c r="AT7" s="145"/>
+      <c r="AU7" s="145"/>
+      <c r="AV7" s="145"/>
+      <c r="AW7" s="145"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="163"/>
-      <c r="AJ8" s="163"/>
-      <c r="AK8" s="163"/>
-      <c r="AL8" s="163"/>
-      <c r="AM8" s="163"/>
-      <c r="AN8" s="158"/>
-      <c r="AO8" s="158"/>
-      <c r="AP8" s="158"/>
-      <c r="AQ8" s="158"/>
-      <c r="AR8" s="158"/>
-      <c r="AS8" s="158"/>
-      <c r="AT8" s="158"/>
-      <c r="AU8" s="158"/>
-      <c r="AV8" s="158"/>
-      <c r="AW8" s="158"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="157"/>
+      <c r="AJ8" s="157"/>
+      <c r="AK8" s="157"/>
+      <c r="AL8" s="157"/>
+      <c r="AM8" s="157"/>
+      <c r="AN8" s="145"/>
+      <c r="AO8" s="145"/>
+      <c r="AP8" s="145"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="163"/>
-      <c r="AJ9" s="163"/>
-      <c r="AK9" s="163"/>
-      <c r="AL9" s="163"/>
-      <c r="AM9" s="163"/>
-      <c r="AN9" s="158"/>
-      <c r="AO9" s="158"/>
-      <c r="AP9" s="158"/>
-      <c r="AQ9" s="158"/>
-      <c r="AR9" s="158"/>
-      <c r="AS9" s="158"/>
-      <c r="AT9" s="158"/>
-      <c r="AU9" s="158"/>
-      <c r="AV9" s="158"/>
-      <c r="AW9" s="158"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="157"/>
+      <c r="AI9" s="157"/>
+      <c r="AJ9" s="157"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="157"/>
+      <c r="AM9" s="157"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="163"/>
-      <c r="AK10" s="163"/>
-      <c r="AL10" s="163"/>
-      <c r="AM10" s="163"/>
-      <c r="AN10" s="158"/>
-      <c r="AO10" s="158"/>
-      <c r="AP10" s="158"/>
-      <c r="AQ10" s="158"/>
-      <c r="AR10" s="158"/>
-      <c r="AS10" s="158"/>
-      <c r="AT10" s="158"/>
-      <c r="AU10" s="158"/>
-      <c r="AV10" s="158"/>
-      <c r="AW10" s="158"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="157"/>
+      <c r="AI10" s="157"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="157"/>
+      <c r="AL10" s="157"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="145"/>
+      <c r="AQ10" s="145"/>
+      <c r="AR10" s="145"/>
+      <c r="AS10" s="145"/>
+      <c r="AT10" s="145"/>
+      <c r="AU10" s="145"/>
+      <c r="AV10" s="145"/>
+      <c r="AW10" s="145"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="166"/>
-      <c r="AJ11" s="166"/>
-      <c r="AK11" s="166"/>
-      <c r="AL11" s="166"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="158"/>
-      <c r="AO11" s="158"/>
-      <c r="AP11" s="158"/>
-      <c r="AQ11" s="158"/>
-      <c r="AR11" s="158"/>
-      <c r="AS11" s="158"/>
-      <c r="AT11" s="158"/>
-      <c r="AU11" s="158"/>
-      <c r="AV11" s="158"/>
-      <c r="AW11" s="158"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="158"/>
+      <c r="AB11" s="158"/>
+      <c r="AC11" s="158"/>
+      <c r="AD11" s="158"/>
+      <c r="AE11" s="158"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="158"/>
+      <c r="AJ11" s="158"/>
+      <c r="AK11" s="158"/>
+      <c r="AL11" s="158"/>
+      <c r="AM11" s="158"/>
+      <c r="AN11" s="145"/>
+      <c r="AO11" s="145"/>
+      <c r="AP11" s="145"/>
+      <c r="AQ11" s="145"/>
+      <c r="AR11" s="145"/>
+      <c r="AS11" s="145"/>
+      <c r="AT11" s="145"/>
+      <c r="AU11" s="145"/>
+      <c r="AV11" s="145"/>
+      <c r="AW11" s="145"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="158"/>
-      <c r="U12" s="158"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="165"/>
-      <c r="AJ12" s="165"/>
-      <c r="AK12" s="165"/>
-      <c r="AL12" s="165"/>
-      <c r="AM12" s="165"/>
-      <c r="AN12" s="158"/>
-      <c r="AO12" s="158"/>
-      <c r="AP12" s="158"/>
-      <c r="AQ12" s="158"/>
-      <c r="AR12" s="158"/>
-      <c r="AS12" s="158"/>
-      <c r="AT12" s="158"/>
-      <c r="AU12" s="158"/>
-      <c r="AV12" s="158"/>
-      <c r="AW12" s="158"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="151"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="145"/>
+      <c r="AO12" s="145"/>
+      <c r="AP12" s="145"/>
+      <c r="AQ12" s="145"/>
+      <c r="AR12" s="145"/>
+      <c r="AS12" s="145"/>
+      <c r="AT12" s="145"/>
+      <c r="AU12" s="145"/>
+      <c r="AV12" s="145"/>
+      <c r="AW12" s="145"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165"/>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="165"/>
-      <c r="Z13" s="165"/>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="165"/>
-      <c r="AD13" s="165"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="165"/>
-      <c r="AJ13" s="165"/>
-      <c r="AK13" s="165"/>
-      <c r="AL13" s="165"/>
-      <c r="AM13" s="165"/>
-      <c r="AN13" s="158"/>
-      <c r="AO13" s="158"/>
-      <c r="AP13" s="158"/>
-      <c r="AQ13" s="158"/>
-      <c r="AR13" s="158"/>
-      <c r="AS13" s="158"/>
-      <c r="AT13" s="158"/>
-      <c r="AU13" s="158"/>
-      <c r="AV13" s="158"/>
-      <c r="AW13" s="158"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="145"/>
+      <c r="AO13" s="145"/>
+      <c r="AP13" s="145"/>
+      <c r="AQ13" s="145"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="145"/>
+      <c r="AT13" s="145"/>
+      <c r="AU13" s="145"/>
+      <c r="AV13" s="145"/>
+      <c r="AW13" s="145"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="158"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="163"/>
-      <c r="Z14" s="163"/>
-      <c r="AA14" s="163"/>
-      <c r="AB14" s="163"/>
-      <c r="AC14" s="163"/>
-      <c r="AD14" s="163"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="163"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="163"/>
-      <c r="AK14" s="163"/>
-      <c r="AL14" s="163"/>
-      <c r="AM14" s="163"/>
-      <c r="AN14" s="158"/>
-      <c r="AO14" s="158"/>
-      <c r="AP14" s="158"/>
-      <c r="AQ14" s="158"/>
-      <c r="AR14" s="158"/>
-      <c r="AS14" s="158"/>
-      <c r="AT14" s="158"/>
-      <c r="AU14" s="158"/>
-      <c r="AV14" s="158"/>
-      <c r="AW14" s="158"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="157"/>
+      <c r="Y14" s="157"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="157"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="157"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="157"/>
+      <c r="AI14" s="157"/>
+      <c r="AJ14" s="157"/>
+      <c r="AK14" s="157"/>
+      <c r="AL14" s="157"/>
+      <c r="AM14" s="157"/>
+      <c r="AN14" s="145"/>
+      <c r="AO14" s="145"/>
+      <c r="AP14" s="145"/>
+      <c r="AQ14" s="145"/>
+      <c r="AR14" s="145"/>
+      <c r="AS14" s="145"/>
+      <c r="AT14" s="145"/>
+      <c r="AU14" s="145"/>
+      <c r="AV14" s="145"/>
+      <c r="AW14" s="145"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="158"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="165"/>
-      <c r="AA15" s="165"/>
-      <c r="AB15" s="165"/>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="165"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="165"/>
-      <c r="AJ15" s="165"/>
-      <c r="AK15" s="165"/>
-      <c r="AL15" s="165"/>
-      <c r="AM15" s="165"/>
-      <c r="AN15" s="158"/>
-      <c r="AO15" s="158"/>
-      <c r="AP15" s="158"/>
-      <c r="AQ15" s="158"/>
-      <c r="AR15" s="158"/>
-      <c r="AS15" s="158"/>
-      <c r="AT15" s="158"/>
-      <c r="AU15" s="158"/>
-      <c r="AV15" s="158"/>
-      <c r="AW15" s="158"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="151"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="151"/>
+      <c r="AJ15" s="151"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="151"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="145"/>
+      <c r="AO15" s="145"/>
+      <c r="AP15" s="145"/>
+      <c r="AQ15" s="145"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="145"/>
+      <c r="AT15" s="145"/>
+      <c r="AU15" s="145"/>
+      <c r="AV15" s="145"/>
+      <c r="AW15" s="145"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="165"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="165"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="165"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="165"/>
-      <c r="AJ16" s="165"/>
-      <c r="AK16" s="165"/>
-      <c r="AL16" s="165"/>
-      <c r="AM16" s="165"/>
-      <c r="AN16" s="158"/>
-      <c r="AO16" s="158"/>
-      <c r="AP16" s="158"/>
-      <c r="AQ16" s="158"/>
-      <c r="AR16" s="158"/>
-      <c r="AS16" s="158"/>
-      <c r="AT16" s="158"/>
-      <c r="AU16" s="158"/>
-      <c r="AV16" s="158"/>
-      <c r="AW16" s="158"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="145"/>
+      <c r="AO16" s="145"/>
+      <c r="AP16" s="145"/>
+      <c r="AQ16" s="145"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="145"/>
+      <c r="AT16" s="145"/>
+      <c r="AU16" s="145"/>
+      <c r="AV16" s="145"/>
+      <c r="AW16" s="145"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="165"/>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="165"/>
-      <c r="AE17" s="165"/>
-      <c r="AF17" s="165"/>
-      <c r="AG17" s="165"/>
-      <c r="AH17" s="165"/>
-      <c r="AI17" s="165"/>
-      <c r="AJ17" s="165"/>
-      <c r="AK17" s="165"/>
-      <c r="AL17" s="165"/>
-      <c r="AM17" s="165"/>
-      <c r="AN17" s="158"/>
-      <c r="AO17" s="158"/>
-      <c r="AP17" s="158"/>
-      <c r="AQ17" s="158"/>
-      <c r="AR17" s="158"/>
-      <c r="AS17" s="158"/>
-      <c r="AT17" s="158"/>
-      <c r="AU17" s="158"/>
-      <c r="AV17" s="158"/>
-      <c r="AW17" s="158"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="151"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="151"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="145"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="145"/>
+      <c r="AT17" s="145"/>
+      <c r="AU17" s="145"/>
+      <c r="AV17" s="145"/>
+      <c r="AW17" s="145"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="165"/>
-      <c r="AK18" s="165"/>
-      <c r="AL18" s="165"/>
-      <c r="AM18" s="165"/>
-      <c r="AN18" s="158"/>
-      <c r="AO18" s="158"/>
-      <c r="AP18" s="158"/>
-      <c r="AQ18" s="158"/>
-      <c r="AR18" s="158"/>
-      <c r="AS18" s="158"/>
-      <c r="AT18" s="158"/>
-      <c r="AU18" s="158"/>
-      <c r="AV18" s="158"/>
-      <c r="AW18" s="158"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="151"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="151"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="145"/>
+      <c r="AO18" s="145"/>
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="145"/>
+      <c r="AT18" s="145"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="145"/>
+      <c r="AW18" s="145"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="165"/>
-      <c r="AA19" s="165"/>
-      <c r="AB19" s="165"/>
-      <c r="AC19" s="165"/>
-      <c r="AD19" s="165"/>
-      <c r="AE19" s="165"/>
-      <c r="AF19" s="165"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="165"/>
-      <c r="AJ19" s="165"/>
-      <c r="AK19" s="165"/>
-      <c r="AL19" s="165"/>
-      <c r="AM19" s="165"/>
-      <c r="AN19" s="158"/>
-      <c r="AO19" s="158"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
-      <c r="AU19" s="158"/>
-      <c r="AV19" s="158"/>
-      <c r="AW19" s="158"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="151"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="151"/>
+      <c r="AN19" s="145"/>
+      <c r="AO19" s="145"/>
+      <c r="AP19" s="145"/>
+      <c r="AQ19" s="145"/>
+      <c r="AR19" s="145"/>
+      <c r="AS19" s="145"/>
+      <c r="AT19" s="145"/>
+      <c r="AU19" s="145"/>
+      <c r="AV19" s="145"/>
+      <c r="AW19" s="145"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
-      <c r="AL20" s="165"/>
-      <c r="AM20" s="165"/>
-      <c r="AN20" s="158"/>
-      <c r="AO20" s="158"/>
-      <c r="AP20" s="158"/>
-      <c r="AQ20" s="158"/>
-      <c r="AR20" s="158"/>
-      <c r="AS20" s="158"/>
-      <c r="AT20" s="158"/>
-      <c r="AU20" s="158"/>
-      <c r="AV20" s="158"/>
-      <c r="AW20" s="158"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="151"/>
+      <c r="AJ20" s="151"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="151"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="145"/>
+      <c r="AO20" s="145"/>
+      <c r="AP20" s="145"/>
+      <c r="AQ20" s="145"/>
+      <c r="AR20" s="145"/>
+      <c r="AS20" s="145"/>
+      <c r="AT20" s="145"/>
+      <c r="AU20" s="145"/>
+      <c r="AV20" s="145"/>
+      <c r="AW20" s="145"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
-      <c r="AL21" s="165"/>
-      <c r="AM21" s="165"/>
-      <c r="AN21" s="158"/>
-      <c r="AO21" s="158"/>
-      <c r="AP21" s="158"/>
-      <c r="AQ21" s="158"/>
-      <c r="AR21" s="158"/>
-      <c r="AS21" s="158"/>
-      <c r="AT21" s="158"/>
-      <c r="AU21" s="158"/>
-      <c r="AV21" s="158"/>
-      <c r="AW21" s="158"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="151"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="151"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="145"/>
+      <c r="AO21" s="145"/>
+      <c r="AP21" s="145"/>
+      <c r="AQ21" s="145"/>
+      <c r="AR21" s="145"/>
+      <c r="AS21" s="145"/>
+      <c r="AT21" s="145"/>
+      <c r="AU21" s="145"/>
+      <c r="AV21" s="145"/>
+      <c r="AW21" s="145"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
-      <c r="AL22" s="165"/>
-      <c r="AM22" s="165"/>
-      <c r="AN22" s="158"/>
-      <c r="AO22" s="158"/>
-      <c r="AP22" s="158"/>
-      <c r="AQ22" s="158"/>
-      <c r="AR22" s="158"/>
-      <c r="AS22" s="158"/>
-      <c r="AT22" s="158"/>
-      <c r="AU22" s="158"/>
-      <c r="AV22" s="158"/>
-      <c r="AW22" s="158"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="151"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="145"/>
+      <c r="AO22" s="145"/>
+      <c r="AP22" s="145"/>
+      <c r="AQ22" s="145"/>
+      <c r="AR22" s="145"/>
+      <c r="AS22" s="145"/>
+      <c r="AT22" s="145"/>
+      <c r="AU22" s="145"/>
+      <c r="AV22" s="145"/>
+      <c r="AW22" s="145"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
-      <c r="AL23" s="165"/>
-      <c r="AM23" s="165"/>
-      <c r="AN23" s="158"/>
-      <c r="AO23" s="158"/>
-      <c r="AP23" s="158"/>
-      <c r="AQ23" s="158"/>
-      <c r="AR23" s="158"/>
-      <c r="AS23" s="158"/>
-      <c r="AT23" s="158"/>
-      <c r="AU23" s="158"/>
-      <c r="AV23" s="158"/>
-      <c r="AW23" s="158"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
+      <c r="AC23" s="151"/>
+      <c r="AD23" s="151"/>
+      <c r="AE23" s="151"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="151"/>
+      <c r="AJ23" s="151"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="151"/>
+      <c r="AM23" s="151"/>
+      <c r="AN23" s="145"/>
+      <c r="AO23" s="145"/>
+      <c r="AP23" s="145"/>
+      <c r="AQ23" s="145"/>
+      <c r="AR23" s="145"/>
+      <c r="AS23" s="145"/>
+      <c r="AT23" s="145"/>
+      <c r="AU23" s="145"/>
+      <c r="AV23" s="145"/>
+      <c r="AW23" s="145"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="165"/>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
-      <c r="AK24" s="165"/>
-      <c r="AL24" s="165"/>
-      <c r="AM24" s="165"/>
-      <c r="AN24" s="158"/>
-      <c r="AO24" s="158"/>
-      <c r="AP24" s="158"/>
-      <c r="AQ24" s="158"/>
-      <c r="AR24" s="158"/>
-      <c r="AS24" s="158"/>
-      <c r="AT24" s="158"/>
-      <c r="AU24" s="158"/>
-      <c r="AV24" s="158"/>
-      <c r="AW24" s="158"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="151"/>
+      <c r="AC24" s="151"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="151"/>
+      <c r="AJ24" s="151"/>
+      <c r="AK24" s="151"/>
+      <c r="AL24" s="151"/>
+      <c r="AM24" s="151"/>
+      <c r="AN24" s="145"/>
+      <c r="AO24" s="145"/>
+      <c r="AP24" s="145"/>
+      <c r="AQ24" s="145"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="145"/>
+      <c r="AT24" s="145"/>
+      <c r="AU24" s="145"/>
+      <c r="AV24" s="145"/>
+      <c r="AW24" s="145"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="165"/>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="165"/>
-      <c r="AJ25" s="165"/>
-      <c r="AK25" s="165"/>
-      <c r="AL25" s="165"/>
-      <c r="AM25" s="165"/>
-      <c r="AN25" s="158"/>
-      <c r="AO25" s="158"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
-      <c r="AU25" s="158"/>
-      <c r="AV25" s="158"/>
-      <c r="AW25" s="158"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="151"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="151"/>
+      <c r="AE25" s="151"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="151"/>
+      <c r="AJ25" s="151"/>
+      <c r="AK25" s="151"/>
+      <c r="AL25" s="151"/>
+      <c r="AM25" s="151"/>
+      <c r="AN25" s="145"/>
+      <c r="AO25" s="145"/>
+      <c r="AP25" s="145"/>
+      <c r="AQ25" s="145"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="145"/>
+      <c r="AT25" s="145"/>
+      <c r="AU25" s="145"/>
+      <c r="AV25" s="145"/>
+      <c r="AW25" s="145"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="165"/>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="165"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
-      <c r="AL26" s="165"/>
-      <c r="AM26" s="165"/>
-      <c r="AN26" s="158"/>
-      <c r="AO26" s="158"/>
-      <c r="AP26" s="158"/>
-      <c r="AQ26" s="158"/>
-      <c r="AR26" s="158"/>
-      <c r="AS26" s="158"/>
-      <c r="AT26" s="158"/>
-      <c r="AU26" s="158"/>
-      <c r="AV26" s="158"/>
-      <c r="AW26" s="158"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="151"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="151"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="151"/>
+      <c r="AM26" s="151"/>
+      <c r="AN26" s="145"/>
+      <c r="AO26" s="145"/>
+      <c r="AP26" s="145"/>
+      <c r="AQ26" s="145"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="145"/>
+      <c r="AT26" s="145"/>
+      <c r="AU26" s="145"/>
+      <c r="AV26" s="145"/>
+      <c r="AW26" s="145"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="164"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="165"/>
-      <c r="X27" s="165"/>
-      <c r="Y27" s="165"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="165"/>
-      <c r="AB27" s="165"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="165"/>
-      <c r="AE27" s="165"/>
-      <c r="AF27" s="165"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="165"/>
-      <c r="AJ27" s="165"/>
-      <c r="AK27" s="165"/>
-      <c r="AL27" s="165"/>
-      <c r="AM27" s="165"/>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="158"/>
-      <c r="AP27" s="158"/>
-      <c r="AQ27" s="158"/>
-      <c r="AR27" s="158"/>
-      <c r="AS27" s="158"/>
-      <c r="AT27" s="158"/>
-      <c r="AU27" s="158"/>
-      <c r="AV27" s="158"/>
-      <c r="AW27" s="158"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="145"/>
+      <c r="AO27" s="145"/>
+      <c r="AP27" s="145"/>
+      <c r="AQ27" s="145"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="145"/>
+      <c r="AT27" s="145"/>
+      <c r="AU27" s="145"/>
+      <c r="AV27" s="145"/>
+      <c r="AW27" s="145"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165"/>
-      <c r="Y28" s="165"/>
-      <c r="Z28" s="165"/>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="165"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="165"/>
-      <c r="AL28" s="165"/>
-      <c r="AM28" s="165"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158"/>
-      <c r="AP28" s="158"/>
-      <c r="AQ28" s="158"/>
-      <c r="AR28" s="158"/>
-      <c r="AS28" s="158"/>
-      <c r="AT28" s="158"/>
-      <c r="AU28" s="158"/>
-      <c r="AV28" s="158"/>
-      <c r="AW28" s="158"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="164"/>
-      <c r="R29" s="164"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="165"/>
-      <c r="X29" s="165"/>
-      <c r="Y29" s="165"/>
-      <c r="Z29" s="165"/>
-      <c r="AA29" s="165"/>
-      <c r="AB29" s="165"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="165"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="165"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="165"/>
-      <c r="AJ29" s="165"/>
-      <c r="AK29" s="165"/>
-      <c r="AL29" s="165"/>
-      <c r="AM29" s="165"/>
-      <c r="AN29" s="158"/>
-      <c r="AO29" s="158"/>
-      <c r="AP29" s="158"/>
-      <c r="AQ29" s="158"/>
-      <c r="AR29" s="158"/>
-      <c r="AS29" s="158"/>
-      <c r="AT29" s="158"/>
-      <c r="AU29" s="158"/>
-      <c r="AV29" s="158"/>
-      <c r="AW29" s="158"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="151"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="145"/>
+      <c r="AO29" s="145"/>
+      <c r="AP29" s="145"/>
+      <c r="AQ29" s="145"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="145"/>
+      <c r="AT29" s="145"/>
+      <c r="AU29" s="145"/>
+      <c r="AV29" s="145"/>
+      <c r="AW29" s="145"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165"/>
-      <c r="Y30" s="165"/>
-      <c r="Z30" s="165"/>
-      <c r="AA30" s="165"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="158"/>
-      <c r="AO30" s="158"/>
-      <c r="AP30" s="158"/>
-      <c r="AQ30" s="158"/>
-      <c r="AR30" s="158"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="158"/>
-      <c r="AV30" s="158"/>
-      <c r="AW30" s="158"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="151"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="145"/>
+      <c r="AO30" s="145"/>
+      <c r="AP30" s="145"/>
+      <c r="AQ30" s="145"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="145"/>
+      <c r="AT30" s="145"/>
+      <c r="AU30" s="145"/>
+      <c r="AV30" s="145"/>
+      <c r="AW30" s="145"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
-      <c r="R31" s="164"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="165"/>
-      <c r="W31" s="165"/>
-      <c r="X31" s="165"/>
-      <c r="Y31" s="165"/>
-      <c r="Z31" s="165"/>
-      <c r="AA31" s="165"/>
-      <c r="AB31" s="165"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="165"/>
-      <c r="AE31" s="165"/>
-      <c r="AF31" s="165"/>
-      <c r="AG31" s="165"/>
-      <c r="AH31" s="165"/>
-      <c r="AI31" s="165"/>
-      <c r="AJ31" s="165"/>
-      <c r="AK31" s="165"/>
-      <c r="AL31" s="165"/>
-      <c r="AM31" s="165"/>
-      <c r="AN31" s="158"/>
-      <c r="AO31" s="158"/>
-      <c r="AP31" s="158"/>
-      <c r="AQ31" s="158"/>
-      <c r="AR31" s="158"/>
-      <c r="AS31" s="158"/>
-      <c r="AT31" s="158"/>
-      <c r="AU31" s="158"/>
-      <c r="AV31" s="158"/>
-      <c r="AW31" s="158"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="151"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="151"/>
+      <c r="AN31" s="145"/>
+      <c r="AO31" s="145"/>
+      <c r="AP31" s="145"/>
+      <c r="AQ31" s="145"/>
+      <c r="AR31" s="145"/>
+      <c r="AS31" s="145"/>
+      <c r="AT31" s="145"/>
+      <c r="AU31" s="145"/>
+      <c r="AV31" s="145"/>
+      <c r="AW31" s="145"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="164"/>
-      <c r="R32" s="164"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="165"/>
-      <c r="W32" s="165"/>
-      <c r="X32" s="165"/>
-      <c r="Y32" s="165"/>
-      <c r="Z32" s="165"/>
-      <c r="AA32" s="165"/>
-      <c r="AB32" s="165"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="165"/>
-      <c r="AE32" s="165"/>
-      <c r="AF32" s="165"/>
-      <c r="AG32" s="165"/>
-      <c r="AH32" s="165"/>
-      <c r="AI32" s="165"/>
-      <c r="AJ32" s="165"/>
-      <c r="AK32" s="165"/>
-      <c r="AL32" s="165"/>
-      <c r="AM32" s="165"/>
-      <c r="AN32" s="158"/>
-      <c r="AO32" s="158"/>
-      <c r="AP32" s="158"/>
-      <c r="AQ32" s="158"/>
-      <c r="AR32" s="158"/>
-      <c r="AS32" s="158"/>
-      <c r="AT32" s="158"/>
-      <c r="AU32" s="158"/>
-      <c r="AV32" s="158"/>
-      <c r="AW32" s="158"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="151"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="151"/>
+      <c r="AJ32" s="151"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="151"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="145"/>
+      <c r="AP32" s="145"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="145"/>
+      <c r="AT32" s="145"/>
+      <c r="AU32" s="145"/>
+      <c r="AV32" s="145"/>
+      <c r="AW32" s="145"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="165"/>
-      <c r="W33" s="165"/>
-      <c r="X33" s="165"/>
-      <c r="Y33" s="165"/>
-      <c r="Z33" s="165"/>
-      <c r="AA33" s="165"/>
-      <c r="AB33" s="165"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="165"/>
-      <c r="AE33" s="165"/>
-      <c r="AF33" s="165"/>
-      <c r="AG33" s="165"/>
-      <c r="AH33" s="165"/>
-      <c r="AI33" s="165"/>
-      <c r="AJ33" s="165"/>
-      <c r="AK33" s="165"/>
-      <c r="AL33" s="165"/>
-      <c r="AM33" s="165"/>
-      <c r="AN33" s="158"/>
-      <c r="AO33" s="158"/>
-      <c r="AP33" s="158"/>
-      <c r="AQ33" s="158"/>
-      <c r="AR33" s="158"/>
-      <c r="AS33" s="158"/>
-      <c r="AT33" s="158"/>
-      <c r="AU33" s="158"/>
-      <c r="AV33" s="158"/>
-      <c r="AW33" s="158"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="151"/>
+      <c r="AB33" s="151"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="151"/>
+      <c r="AE33" s="151"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="151"/>
+      <c r="AJ33" s="151"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="151"/>
+      <c r="AN33" s="145"/>
+      <c r="AO33" s="145"/>
+      <c r="AP33" s="145"/>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="145"/>
+      <c r="AT33" s="145"/>
+      <c r="AU33" s="145"/>
+      <c r="AV33" s="145"/>
+      <c r="AW33" s="145"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="172"/>
-      <c r="S34" s="158"/>
-      <c r="T34" s="158"/>
-      <c r="U34" s="158"/>
-      <c r="V34" s="165"/>
-      <c r="W34" s="165"/>
-      <c r="X34" s="165"/>
-      <c r="Y34" s="165"/>
-      <c r="Z34" s="165"/>
-      <c r="AA34" s="165"/>
-      <c r="AB34" s="165"/>
-      <c r="AC34" s="165"/>
-      <c r="AD34" s="165"/>
-      <c r="AE34" s="165"/>
-      <c r="AF34" s="165"/>
-      <c r="AG34" s="165"/>
-      <c r="AH34" s="165"/>
-      <c r="AI34" s="165"/>
-      <c r="AJ34" s="165"/>
-      <c r="AK34" s="165"/>
-      <c r="AL34" s="165"/>
-      <c r="AM34" s="165"/>
-      <c r="AN34" s="158"/>
-      <c r="AO34" s="158"/>
-      <c r="AP34" s="158"/>
-      <c r="AQ34" s="158"/>
-      <c r="AR34" s="158"/>
-      <c r="AS34" s="158"/>
-      <c r="AT34" s="158"/>
-      <c r="AU34" s="158"/>
-      <c r="AV34" s="158"/>
-      <c r="AW34" s="158"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="150"/>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="150"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="151"/>
+      <c r="W34" s="151"/>
+      <c r="X34" s="151"/>
+      <c r="Y34" s="151"/>
+      <c r="Z34" s="151"/>
+      <c r="AA34" s="151"/>
+      <c r="AB34" s="151"/>
+      <c r="AC34" s="151"/>
+      <c r="AD34" s="151"/>
+      <c r="AE34" s="151"/>
+      <c r="AF34" s="151"/>
+      <c r="AG34" s="151"/>
+      <c r="AH34" s="151"/>
+      <c r="AI34" s="151"/>
+      <c r="AJ34" s="151"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="151"/>
+      <c r="AM34" s="151"/>
+      <c r="AN34" s="145"/>
+      <c r="AO34" s="145"/>
+      <c r="AP34" s="145"/>
+      <c r="AQ34" s="145"/>
+      <c r="AR34" s="145"/>
+      <c r="AS34" s="145"/>
+      <c r="AT34" s="145"/>
+      <c r="AU34" s="145"/>
+      <c r="AV34" s="145"/>
+      <c r="AW34" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8304,239 +8564,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8617,14 +8644,14 @@
       <c r="AL1" s="33"/>
       <c r="AM1" s="33"/>
       <c r="AN1" s="34"/>
-      <c r="AO1" s="179">
+      <c r="AO1" s="170">
         <f>変更履歴!E5</f>
         <v>43712</v>
       </c>
-      <c r="AP1" s="180"/>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="181"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="172"/>
       <c r="AT1" s="32" t="s">
         <v>24</v>
       </c>
@@ -8633,17 +8660,17 @@
       <c r="AW1" s="33"/>
       <c r="AX1" s="33"/>
       <c r="AY1" s="34"/>
-      <c r="AZ1" s="182" t="str">
+      <c r="AZ1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="184"/>
+      <c r="BA1" s="174"/>
+      <c r="BB1" s="174"/>
+      <c r="BC1" s="174"/>
+      <c r="BD1" s="174"/>
+      <c r="BE1" s="174"/>
+      <c r="BF1" s="174"/>
+      <c r="BG1" s="175"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
@@ -8696,11 +8723,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="180"/>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="181"/>
+      <c r="AO2" s="170"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="172"/>
       <c r="AT2" s="32" t="s">
         <v>25</v>
       </c>
@@ -8709,14 +8736,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="182"/>
-      <c r="BA2" s="183"/>
-      <c r="BB2" s="183"/>
-      <c r="BC2" s="183"/>
-      <c r="BD2" s="183"/>
-      <c r="BE2" s="183"/>
-      <c r="BF2" s="183"/>
-      <c r="BG2" s="184"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="174"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="175"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -10382,10 +10409,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="177" t="s">
+      <c r="B47" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="178"/>
+      <c r="C47" s="181"/>
       <c r="D47" s="90" t="s">
         <v>100</v>
       </c>
@@ -10468,10 +10495,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="175">
+      <c r="B48" s="178">
         <v>1</v>
       </c>
-      <c r="C48" s="176"/>
+      <c r="C48" s="179"/>
       <c r="D48" s="94" t="s">
         <v>124</v>
       </c>
@@ -10503,16 +10530,16 @@
       <c r="AB48" s="88"/>
       <c r="AC48" s="88"/>
       <c r="AD48" s="89"/>
-      <c r="AE48" s="173" t="s">
+      <c r="AE48" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF48" s="174"/>
-      <c r="AG48" s="173"/>
-      <c r="AH48" s="174"/>
-      <c r="AI48" s="173"/>
-      <c r="AJ48" s="174"/>
-      <c r="AK48" s="173"/>
-      <c r="AL48" s="174"/>
+      <c r="AF48" s="177"/>
+      <c r="AG48" s="176"/>
+      <c r="AH48" s="177"/>
+      <c r="AI48" s="176"/>
+      <c r="AJ48" s="177"/>
+      <c r="AK48" s="176"/>
+      <c r="AL48" s="177"/>
       <c r="AM48" s="85" t="s">
         <v>292</v>
       </c>
@@ -10546,10 +10573,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="175">
+      <c r="B49" s="178">
         <v>2</v>
       </c>
-      <c r="C49" s="176"/>
+      <c r="C49" s="179"/>
       <c r="D49" s="94" t="s">
         <v>107</v>
       </c>
@@ -10581,16 +10608,16 @@
       <c r="AB49" s="88"/>
       <c r="AC49" s="88"/>
       <c r="AD49" s="95"/>
-      <c r="AE49" s="173" t="s">
+      <c r="AE49" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF49" s="174"/>
-      <c r="AG49" s="173"/>
-      <c r="AH49" s="174"/>
-      <c r="AI49" s="173"/>
-      <c r="AJ49" s="174"/>
-      <c r="AK49" s="173"/>
-      <c r="AL49" s="174"/>
+      <c r="AF49" s="177"/>
+      <c r="AG49" s="176"/>
+      <c r="AH49" s="177"/>
+      <c r="AI49" s="176"/>
+      <c r="AJ49" s="177"/>
+      <c r="AK49" s="176"/>
+      <c r="AL49" s="177"/>
       <c r="AM49" s="85" t="s">
         <v>293</v>
       </c>
@@ -10624,11 +10651,11 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="175">
+      <c r="B50" s="178">
         <v>3</v>
       </c>
-      <c r="C50" s="176"/>
-      <c r="D50" s="124" t="s">
+      <c r="C50" s="179"/>
+      <c r="D50" s="121" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="88"/>
@@ -10636,8 +10663,8 @@
       <c r="G50" s="88"/>
       <c r="H50" s="88"/>
       <c r="I50" s="88"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="124" t="s">
+      <c r="J50" s="122"/>
+      <c r="K50" s="121" t="s">
         <v>294</v>
       </c>
       <c r="L50" s="88"/>
@@ -10648,8 +10675,8 @@
       <c r="Q50" s="88"/>
       <c r="R50" s="88"/>
       <c r="S50" s="88"/>
-      <c r="T50" s="125"/>
-      <c r="U50" s="124"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="121"/>
       <c r="V50" s="88"/>
       <c r="W50" s="88"/>
       <c r="X50" s="88"/>
@@ -10658,17 +10685,17 @@
       <c r="AA50" s="88"/>
       <c r="AB50" s="88"/>
       <c r="AC50" s="88"/>
-      <c r="AD50" s="125"/>
-      <c r="AE50" s="173" t="s">
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF50" s="174"/>
-      <c r="AG50" s="173"/>
-      <c r="AH50" s="174"/>
-      <c r="AI50" s="173"/>
-      <c r="AJ50" s="174"/>
-      <c r="AK50" s="173"/>
-      <c r="AL50" s="174"/>
+      <c r="AF50" s="177"/>
+      <c r="AG50" s="176"/>
+      <c r="AH50" s="177"/>
+      <c r="AI50" s="176"/>
+      <c r="AJ50" s="177"/>
+      <c r="AK50" s="176"/>
+      <c r="AL50" s="177"/>
       <c r="AM50" s="85" t="s">
         <v>295</v>
       </c>
@@ -10702,11 +10729,11 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="175">
+      <c r="B51" s="178">
         <v>4</v>
       </c>
-      <c r="C51" s="176"/>
-      <c r="D51" s="124" t="s">
+      <c r="C51" s="179"/>
+      <c r="D51" s="121" t="s">
         <v>107</v>
       </c>
       <c r="E51" s="88"/>
@@ -10714,8 +10741,8 @@
       <c r="G51" s="88"/>
       <c r="H51" s="88"/>
       <c r="I51" s="88"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="124" t="s">
+      <c r="J51" s="122"/>
+      <c r="K51" s="121" t="s">
         <v>296</v>
       </c>
       <c r="L51" s="88"/>
@@ -10726,8 +10753,8 @@
       <c r="Q51" s="88"/>
       <c r="R51" s="88"/>
       <c r="S51" s="88"/>
-      <c r="T51" s="125"/>
-      <c r="U51" s="124"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="121"/>
       <c r="V51" s="88"/>
       <c r="W51" s="88"/>
       <c r="X51" s="88"/>
@@ -10736,17 +10763,17 @@
       <c r="AA51" s="88"/>
       <c r="AB51" s="88"/>
       <c r="AC51" s="88"/>
-      <c r="AD51" s="125"/>
-      <c r="AE51" s="173" t="s">
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF51" s="174"/>
-      <c r="AG51" s="173"/>
-      <c r="AH51" s="174"/>
-      <c r="AI51" s="173"/>
-      <c r="AJ51" s="174"/>
-      <c r="AK51" s="173"/>
-      <c r="AL51" s="174"/>
+      <c r="AF51" s="177"/>
+      <c r="AG51" s="176"/>
+      <c r="AH51" s="177"/>
+      <c r="AI51" s="176"/>
+      <c r="AJ51" s="177"/>
+      <c r="AK51" s="176"/>
+      <c r="AL51" s="177"/>
       <c r="AM51" s="85" t="s">
         <v>297</v>
       </c>
@@ -10780,11 +10807,11 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="175">
+      <c r="B52" s="178">
         <v>5</v>
       </c>
-      <c r="C52" s="176"/>
-      <c r="D52" s="124" t="s">
+      <c r="C52" s="179"/>
+      <c r="D52" s="121" t="s">
         <v>107</v>
       </c>
       <c r="E52" s="88"/>
@@ -10792,8 +10819,8 @@
       <c r="G52" s="88"/>
       <c r="H52" s="88"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="124" t="s">
+      <c r="J52" s="122"/>
+      <c r="K52" s="121" t="s">
         <v>415</v>
       </c>
       <c r="L52" s="88"/>
@@ -10804,8 +10831,8 @@
       <c r="Q52" s="88"/>
       <c r="R52" s="88"/>
       <c r="S52" s="88"/>
-      <c r="T52" s="125"/>
-      <c r="U52" s="124"/>
+      <c r="T52" s="122"/>
+      <c r="U52" s="121"/>
       <c r="V52" s="88"/>
       <c r="W52" s="88"/>
       <c r="X52" s="88"/>
@@ -10814,17 +10841,17 @@
       <c r="AA52" s="88"/>
       <c r="AB52" s="88"/>
       <c r="AC52" s="88"/>
-      <c r="AD52" s="125"/>
-      <c r="AE52" s="173" t="s">
+      <c r="AD52" s="122"/>
+      <c r="AE52" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF52" s="174"/>
-      <c r="AG52" s="173"/>
-      <c r="AH52" s="174"/>
-      <c r="AI52" s="173"/>
-      <c r="AJ52" s="174"/>
-      <c r="AK52" s="173"/>
-      <c r="AL52" s="174"/>
+      <c r="AF52" s="177"/>
+      <c r="AG52" s="176"/>
+      <c r="AH52" s="177"/>
+      <c r="AI52" s="176"/>
+      <c r="AJ52" s="177"/>
+      <c r="AK52" s="176"/>
+      <c r="AL52" s="177"/>
       <c r="AM52" s="85" t="s">
         <v>298</v>
       </c>
@@ -10858,10 +10885,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="175">
+      <c r="B53" s="178">
         <v>6</v>
       </c>
-      <c r="C53" s="176"/>
+      <c r="C53" s="179"/>
       <c r="D53" s="94" t="s">
         <v>107</v>
       </c>
@@ -10893,16 +10920,16 @@
       <c r="AB53" s="88"/>
       <c r="AC53" s="88"/>
       <c r="AD53" s="95"/>
-      <c r="AE53" s="173" t="s">
+      <c r="AE53" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF53" s="174"/>
-      <c r="AG53" s="173"/>
-      <c r="AH53" s="174"/>
-      <c r="AI53" s="173"/>
-      <c r="AJ53" s="174"/>
-      <c r="AK53" s="173"/>
-      <c r="AL53" s="174"/>
+      <c r="AF53" s="177"/>
+      <c r="AG53" s="176"/>
+      <c r="AH53" s="177"/>
+      <c r="AI53" s="176"/>
+      <c r="AJ53" s="177"/>
+      <c r="AK53" s="176"/>
+      <c r="AL53" s="177"/>
       <c r="AM53" s="85" t="s">
         <v>299</v>
       </c>
@@ -10936,10 +10963,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="175">
+      <c r="B54" s="178">
         <v>7</v>
       </c>
-      <c r="C54" s="176"/>
+      <c r="C54" s="179"/>
       <c r="D54" s="94" t="s">
         <v>107</v>
       </c>
@@ -10971,16 +10998,16 @@
       <c r="AB54" s="88"/>
       <c r="AC54" s="88"/>
       <c r="AD54" s="95"/>
-      <c r="AE54" s="173" t="s">
+      <c r="AE54" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF54" s="174"/>
-      <c r="AG54" s="173"/>
-      <c r="AH54" s="174"/>
-      <c r="AI54" s="173"/>
-      <c r="AJ54" s="174"/>
-      <c r="AK54" s="173"/>
-      <c r="AL54" s="174"/>
+      <c r="AF54" s="177"/>
+      <c r="AG54" s="176"/>
+      <c r="AH54" s="177"/>
+      <c r="AI54" s="176"/>
+      <c r="AJ54" s="177"/>
+      <c r="AK54" s="176"/>
+      <c r="AL54" s="177"/>
       <c r="AM54" s="85" t="s">
         <v>301</v>
       </c>
@@ -11014,11 +11041,11 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="27"/>
-      <c r="B55" s="175">
+      <c r="B55" s="178">
         <v>8</v>
       </c>
-      <c r="C55" s="176"/>
-      <c r="D55" s="124" t="s">
+      <c r="C55" s="179"/>
+      <c r="D55" s="121" t="s">
         <v>290</v>
       </c>
       <c r="E55" s="88"/>
@@ -11026,8 +11053,8 @@
       <c r="G55" s="88"/>
       <c r="H55" s="88"/>
       <c r="I55" s="88"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="124" t="s">
+      <c r="J55" s="122"/>
+      <c r="K55" s="121" t="s">
         <v>425</v>
       </c>
       <c r="L55" s="88"/>
@@ -11038,8 +11065,8 @@
       <c r="Q55" s="88"/>
       <c r="R55" s="88"/>
       <c r="S55" s="88"/>
-      <c r="T55" s="125"/>
-      <c r="U55" s="124"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="121"/>
       <c r="V55" s="88"/>
       <c r="W55" s="88"/>
       <c r="X55" s="88"/>
@@ -11048,17 +11075,17 @@
       <c r="AA55" s="88"/>
       <c r="AB55" s="88"/>
       <c r="AC55" s="88"/>
-      <c r="AD55" s="125"/>
-      <c r="AE55" s="173" t="s">
+      <c r="AD55" s="122"/>
+      <c r="AE55" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF55" s="174"/>
-      <c r="AG55" s="173"/>
-      <c r="AH55" s="174"/>
-      <c r="AI55" s="173"/>
-      <c r="AJ55" s="174"/>
-      <c r="AK55" s="173"/>
-      <c r="AL55" s="174"/>
+      <c r="AF55" s="177"/>
+      <c r="AG55" s="176"/>
+      <c r="AH55" s="177"/>
+      <c r="AI55" s="176"/>
+      <c r="AJ55" s="177"/>
+      <c r="AK55" s="176"/>
+      <c r="AL55" s="177"/>
       <c r="AM55" s="85" t="s">
         <v>300</v>
       </c>
@@ -11092,11 +11119,11 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="27"/>
-      <c r="B56" s="175">
+      <c r="B56" s="178">
         <v>9</v>
       </c>
-      <c r="C56" s="176"/>
-      <c r="D56" s="124" t="s">
+      <c r="C56" s="179"/>
+      <c r="D56" s="121" t="s">
         <v>290</v>
       </c>
       <c r="E56" s="88"/>
@@ -11127,16 +11154,16 @@
       <c r="AB56" s="88"/>
       <c r="AC56" s="88"/>
       <c r="AD56" s="89"/>
-      <c r="AE56" s="173" t="s">
+      <c r="AE56" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF56" s="174"/>
-      <c r="AG56" s="173"/>
-      <c r="AH56" s="174"/>
-      <c r="AI56" s="173"/>
-      <c r="AJ56" s="174"/>
-      <c r="AK56" s="173"/>
-      <c r="AL56" s="174"/>
+      <c r="AF56" s="177"/>
+      <c r="AG56" s="176"/>
+      <c r="AH56" s="177"/>
+      <c r="AI56" s="176"/>
+      <c r="AJ56" s="177"/>
+      <c r="AK56" s="176"/>
+      <c r="AL56" s="177"/>
       <c r="AM56" s="85" t="s">
         <v>300</v>
       </c>
@@ -11170,11 +11197,11 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="27"/>
-      <c r="B57" s="175">
+      <c r="B57" s="178">
         <v>10</v>
       </c>
-      <c r="C57" s="176"/>
-      <c r="D57" s="124" t="s">
+      <c r="C57" s="179"/>
+      <c r="D57" s="121" t="s">
         <v>290</v>
       </c>
       <c r="E57" s="88"/>
@@ -11182,8 +11209,8 @@
       <c r="G57" s="88"/>
       <c r="H57" s="88"/>
       <c r="I57" s="88"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="124" t="s">
+      <c r="J57" s="122"/>
+      <c r="K57" s="121" t="s">
         <v>427</v>
       </c>
       <c r="L57" s="88"/>
@@ -11194,8 +11221,8 @@
       <c r="Q57" s="88"/>
       <c r="R57" s="88"/>
       <c r="S57" s="88"/>
-      <c r="T57" s="125"/>
-      <c r="U57" s="124"/>
+      <c r="T57" s="122"/>
+      <c r="U57" s="121"/>
       <c r="V57" s="88"/>
       <c r="W57" s="88"/>
       <c r="X57" s="88"/>
@@ -11204,17 +11231,17 @@
       <c r="AA57" s="88"/>
       <c r="AB57" s="88"/>
       <c r="AC57" s="88"/>
-      <c r="AD57" s="125"/>
-      <c r="AE57" s="173" t="s">
+      <c r="AD57" s="122"/>
+      <c r="AE57" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AF57" s="174"/>
-      <c r="AG57" s="173"/>
-      <c r="AH57" s="174"/>
-      <c r="AI57" s="173"/>
-      <c r="AJ57" s="174"/>
-      <c r="AK57" s="173"/>
-      <c r="AL57" s="174"/>
+      <c r="AF57" s="177"/>
+      <c r="AG57" s="176"/>
+      <c r="AH57" s="177"/>
+      <c r="AI57" s="176"/>
+      <c r="AJ57" s="177"/>
+      <c r="AK57" s="176"/>
+      <c r="AL57" s="177"/>
       <c r="AM57" s="85" t="s">
         <v>300</v>
       </c>
@@ -11253,35 +11280,16 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
@@ -11298,16 +11306,35 @@
     <mergeCell ref="AG54:AH54"/>
     <mergeCell ref="AG49:AH49"/>
     <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK48:AL48"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11326,7 +11353,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DI76"/>
+  <dimension ref="A1:DI77"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -11431,20 +11458,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="179">
+      <c r="CD1" s="170">
         <f>変更履歴!E5</f>
         <v>43712</v>
       </c>
-      <c r="CE1" s="187"/>
-      <c r="CF1" s="187"/>
-      <c r="CG1" s="187"/>
-      <c r="CH1" s="187"/>
-      <c r="CI1" s="187"/>
-      <c r="CJ1" s="187"/>
-      <c r="CK1" s="187"/>
-      <c r="CL1" s="187"/>
-      <c r="CM1" s="187"/>
-      <c r="CN1" s="188"/>
+      <c r="CE1" s="184"/>
+      <c r="CF1" s="184"/>
+      <c r="CG1" s="184"/>
+      <c r="CH1" s="184"/>
+      <c r="CI1" s="184"/>
+      <c r="CJ1" s="184"/>
+      <c r="CK1" s="184"/>
+      <c r="CL1" s="184"/>
+      <c r="CM1" s="184"/>
+      <c r="CN1" s="185"/>
       <c r="CO1" s="32" t="s">
         <v>24</v>
       </c>
@@ -11453,23 +11480,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="182" t="str">
+      <c r="CU1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="185"/>
-      <c r="CW1" s="185"/>
-      <c r="CX1" s="185"/>
-      <c r="CY1" s="185"/>
-      <c r="CZ1" s="185"/>
-      <c r="DA1" s="185"/>
-      <c r="DB1" s="185"/>
-      <c r="DC1" s="185"/>
-      <c r="DD1" s="185"/>
-      <c r="DE1" s="185"/>
-      <c r="DF1" s="185"/>
-      <c r="DG1" s="185"/>
-      <c r="DH1" s="186"/>
+      <c r="CV1" s="182"/>
+      <c r="CW1" s="182"/>
+      <c r="CX1" s="182"/>
+      <c r="CY1" s="182"/>
+      <c r="CZ1" s="182"/>
+      <c r="DA1" s="182"/>
+      <c r="DB1" s="182"/>
+      <c r="DC1" s="182"/>
+      <c r="DD1" s="182"/>
+      <c r="DE1" s="182"/>
+      <c r="DF1" s="182"/>
+      <c r="DG1" s="182"/>
+      <c r="DH1" s="183"/>
     </row>
     <row r="2" spans="1:113" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -11524,39 +11551,39 @@
       <c r="AQ2" s="36"/>
       <c r="AR2" s="36"/>
       <c r="AS2" s="37"/>
-      <c r="AT2" s="190" t="str">
+      <c r="AT2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>進捗管理</v>
       </c>
-      <c r="AU2" s="187"/>
-      <c r="AV2" s="187"/>
-      <c r="AW2" s="187"/>
-      <c r="AX2" s="187"/>
-      <c r="AY2" s="187"/>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="187"/>
-      <c r="BH2" s="187"/>
-      <c r="BI2" s="187"/>
-      <c r="BJ2" s="187"/>
-      <c r="BK2" s="187"/>
-      <c r="BL2" s="187"/>
-      <c r="BM2" s="187"/>
-      <c r="BN2" s="187"/>
-      <c r="BO2" s="187"/>
-      <c r="BP2" s="187"/>
-      <c r="BQ2" s="187"/>
-      <c r="BR2" s="187"/>
-      <c r="BS2" s="187"/>
-      <c r="BT2" s="187"/>
-      <c r="BU2" s="187"/>
-      <c r="BV2" s="187"/>
-      <c r="BW2" s="188"/>
+      <c r="AU2" s="184"/>
+      <c r="AV2" s="184"/>
+      <c r="AW2" s="184"/>
+      <c r="AX2" s="184"/>
+      <c r="AY2" s="184"/>
+      <c r="AZ2" s="184"/>
+      <c r="BA2" s="184"/>
+      <c r="BB2" s="184"/>
+      <c r="BC2" s="184"/>
+      <c r="BD2" s="184"/>
+      <c r="BE2" s="184"/>
+      <c r="BF2" s="184"/>
+      <c r="BG2" s="184"/>
+      <c r="BH2" s="184"/>
+      <c r="BI2" s="184"/>
+      <c r="BJ2" s="184"/>
+      <c r="BK2" s="184"/>
+      <c r="BL2" s="184"/>
+      <c r="BM2" s="184"/>
+      <c r="BN2" s="184"/>
+      <c r="BO2" s="184"/>
+      <c r="BP2" s="184"/>
+      <c r="BQ2" s="184"/>
+      <c r="BR2" s="184"/>
+      <c r="BS2" s="184"/>
+      <c r="BT2" s="184"/>
+      <c r="BU2" s="184"/>
+      <c r="BV2" s="184"/>
+      <c r="BW2" s="185"/>
       <c r="BX2" s="32" t="s">
         <v>23</v>
       </c>
@@ -11565,17 +11592,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="189"/>
-      <c r="CE2" s="185"/>
-      <c r="CF2" s="185"/>
-      <c r="CG2" s="185"/>
-      <c r="CH2" s="185"/>
-      <c r="CI2" s="185"/>
-      <c r="CJ2" s="185"/>
-      <c r="CK2" s="185"/>
-      <c r="CL2" s="185"/>
-      <c r="CM2" s="185"/>
-      <c r="CN2" s="186"/>
+      <c r="CD2" s="186"/>
+      <c r="CE2" s="182"/>
+      <c r="CF2" s="182"/>
+      <c r="CG2" s="182"/>
+      <c r="CH2" s="182"/>
+      <c r="CI2" s="182"/>
+      <c r="CJ2" s="182"/>
+      <c r="CK2" s="182"/>
+      <c r="CL2" s="182"/>
+      <c r="CM2" s="182"/>
+      <c r="CN2" s="183"/>
       <c r="CO2" s="32" t="s">
         <v>25</v>
       </c>
@@ -11584,20 +11611,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="182"/>
-      <c r="CV2" s="185"/>
-      <c r="CW2" s="185"/>
-      <c r="CX2" s="185"/>
-      <c r="CY2" s="185"/>
-      <c r="CZ2" s="185"/>
-      <c r="DA2" s="185"/>
-      <c r="DB2" s="185"/>
-      <c r="DC2" s="185"/>
-      <c r="DD2" s="185"/>
-      <c r="DE2" s="185"/>
-      <c r="DF2" s="185"/>
-      <c r="DG2" s="185"/>
-      <c r="DH2" s="186"/>
+      <c r="CU2" s="173"/>
+      <c r="CV2" s="182"/>
+      <c r="CW2" s="182"/>
+      <c r="CX2" s="182"/>
+      <c r="CY2" s="182"/>
+      <c r="CZ2" s="182"/>
+      <c r="DA2" s="182"/>
+      <c r="DB2" s="182"/>
+      <c r="DC2" s="182"/>
+      <c r="DD2" s="182"/>
+      <c r="DE2" s="182"/>
+      <c r="DF2" s="182"/>
+      <c r="DG2" s="182"/>
+      <c r="DH2" s="183"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="53"/>
@@ -11656,17 +11683,17 @@
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="52" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="52" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="52" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="52" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -11683,9 +11710,10 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="38" max="111" man="1"/>
-    <brk id="73" max="111" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="39" max="111" man="1"/>
+    <brk id="74" max="111" man="1"/>
+    <brk id="109" max="111" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11819,37 +11847,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="150" t="s">
+      <c r="E6" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="150" t="s">
+      <c r="H6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="191" t="s">
+      <c r="I6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="191" t="s">
+      <c r="J6" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="150" t="s">
+      <c r="L6" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="150" t="s">
+      <c r="M6" s="162" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="69" t="s">
@@ -11857,24 +11885,24 @@
       </c>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
-      <c r="Q6" s="191" t="s">
+      <c r="Q6" s="190" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
       <c r="N7" s="41" t="s">
         <v>79</v>
       </c>
@@ -11884,7 +11912,7 @@
       <c r="P7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="191"/>
+      <c r="Q7" s="190"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -11944,7 +11972,7 @@
       <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="131" t="s">
         <v>562</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -12046,37 +12074,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="150" t="s">
+      <c r="E13" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="150" t="s">
+      <c r="F13" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="150" t="s">
+      <c r="G13" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="150" t="s">
+      <c r="H13" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="192" t="s">
+      <c r="I13" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="191" t="s">
+      <c r="J13" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="150" t="s">
+      <c r="K13" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="150" t="s">
+      <c r="L13" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="150" t="s">
+      <c r="M13" s="162" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="69" t="s">
@@ -12084,24 +12112,24 @@
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
-      <c r="Q13" s="192" t="s">
+      <c r="Q13" s="188" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
       <c r="N14" s="41" t="s">
         <v>79</v>
       </c>
@@ -12111,7 +12139,7 @@
       <c r="P14" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q14" s="193"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -12207,7 +12235,7 @@
       <c r="P16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="141" t="s">
+      <c r="Q16" s="138" t="s">
         <v>569</v>
       </c>
     </row>
@@ -12256,7 +12284,7 @@
       <c r="P17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="141" t="s">
+      <c r="Q17" s="138" t="s">
         <v>569</v>
       </c>
     </row>
@@ -12305,7 +12333,7 @@
       <c r="P18" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="Q18" s="138" t="s">
+      <c r="Q18" s="135" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12354,7 +12382,7 @@
       <c r="P19" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="Q19" s="138" t="s">
+      <c r="Q19" s="135" t="s">
         <v>564</v>
       </c>
     </row>
@@ -12573,37 +12601,37 @@
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="61"/>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="150" t="s">
+      <c r="E27" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="150" t="s">
+      <c r="F27" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="150" t="s">
+      <c r="G27" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="150" t="s">
+      <c r="H27" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="191" t="s">
+      <c r="I27" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="191" t="s">
+      <c r="J27" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="150" t="s">
+      <c r="K27" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="150" t="s">
+      <c r="L27" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="150" t="s">
+      <c r="M27" s="162" t="s">
         <v>32</v>
       </c>
       <c r="N27" s="69" t="s">
@@ -12611,24 +12639,24 @@
       </c>
       <c r="O27" s="69"/>
       <c r="P27" s="69"/>
-      <c r="Q27" s="191" t="s">
+      <c r="Q27" s="190" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
       <c r="N28" s="41" t="s">
         <v>79</v>
       </c>
@@ -12638,7 +12666,7 @@
       <c r="P28" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q28" s="191"/>
+      <c r="Q28" s="190"/>
     </row>
     <row r="29" spans="1:17" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="54"/>
@@ -12945,7 +12973,7 @@
       <c r="N35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="138" t="s">
+      <c r="O35" s="135" t="s">
         <v>555</v>
       </c>
       <c r="P35" s="7" t="s">
@@ -12994,7 +13022,7 @@
       <c r="N36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="138" t="s">
+      <c r="O36" s="135" t="s">
         <v>556</v>
       </c>
       <c r="P36" s="7" t="s">
@@ -13043,7 +13071,7 @@
       <c r="N37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="138" t="s">
+      <c r="O37" s="135" t="s">
         <v>557</v>
       </c>
       <c r="P37" s="7" t="s">
@@ -13092,7 +13120,7 @@
       <c r="N38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="138" t="s">
+      <c r="O38" s="135" t="s">
         <v>558</v>
       </c>
       <c r="P38" s="7" t="s">
@@ -13111,10 +13139,10 @@
       <c r="D39" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="139" t="s">
+      <c r="E39" s="136" t="s">
         <v>566</v>
       </c>
-      <c r="F39" s="134" t="s">
+      <c r="F39" s="131" t="s">
         <v>567</v>
       </c>
       <c r="G39" s="42" t="s">
@@ -13141,7 +13169,7 @@
       <c r="N39" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="138" t="s">
+      <c r="O39" s="135" t="s">
         <v>559</v>
       </c>
       <c r="P39" s="7" t="s">
@@ -13374,7 +13402,7 @@
       <c r="J44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="134" t="s">
+      <c r="K44" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L44" s="7" t="s">
@@ -13423,7 +13451,7 @@
       <c r="J45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="134" t="s">
+      <c r="K45" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -13472,7 +13500,7 @@
       <c r="J46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="134" t="s">
+      <c r="K46" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L46" s="7" t="s">
@@ -13521,7 +13549,7 @@
       <c r="J47" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="134" t="s">
+      <c r="K47" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -13570,7 +13598,7 @@
       <c r="J48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="134" t="s">
+      <c r="K48" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -13619,7 +13647,7 @@
       <c r="J49" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="134" t="s">
+      <c r="K49" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -13668,7 +13696,7 @@
       <c r="J50" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="134" t="s">
+      <c r="K50" s="131" t="s">
         <v>574</v>
       </c>
       <c r="L50" s="7" t="s">
@@ -13717,7 +13745,7 @@
       <c r="J51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K51" s="134" t="s">
+      <c r="K51" s="131" t="s">
         <v>574</v>
       </c>
       <c r="L51" s="7" t="s">
@@ -13766,7 +13794,7 @@
       <c r="J52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K52" s="134" t="s">
+      <c r="K52" s="131" t="s">
         <v>574</v>
       </c>
       <c r="L52" s="7" t="s">
@@ -13815,7 +13843,7 @@
       <c r="J53" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="134" t="s">
+      <c r="K53" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L53" s="7" t="s">
@@ -13824,10 +13852,10 @@
       <c r="M53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="127" t="s">
+      <c r="N53" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="127" t="s">
+      <c r="O53" s="124" t="s">
         <v>33</v>
       </c>
       <c r="P53" s="7" t="s">
@@ -13864,7 +13892,7 @@
       <c r="J54" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="134" t="s">
+      <c r="K54" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L54" s="7" t="s">
@@ -13913,7 +13941,7 @@
       <c r="J55" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="134" t="s">
+      <c r="K55" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L55" s="7" t="s">
@@ -13962,7 +13990,7 @@
       <c r="J56" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K56" s="134" t="s">
+      <c r="K56" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L56" s="7" t="s">
@@ -14011,7 +14039,7 @@
       <c r="J57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K57" s="134" t="s">
+      <c r="K57" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L57" s="7" t="s">
@@ -14060,7 +14088,7 @@
       <c r="J58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K58" s="134" t="s">
+      <c r="K58" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L58" s="7" t="s">
@@ -14078,7 +14106,7 @@
       <c r="P58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q58" s="138" t="s">
+      <c r="Q58" s="135" t="s">
         <v>571</v>
       </c>
     </row>
@@ -14279,46 +14307,46 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B63" s="136"/>
+      <c r="B63" s="133"/>
     </row>
     <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B64" s="136" t="s">
+      <c r="B64" s="133" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="65" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="137"/>
-      <c r="C65" s="150" t="s">
+      <c r="B65" s="134"/>
+      <c r="C65" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="150" t="s">
+      <c r="D65" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="150" t="s">
+      <c r="E65" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="150" t="s">
+      <c r="F65" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="150" t="s">
+      <c r="G65" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="150" t="s">
+      <c r="H65" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="I65" s="191" t="s">
+      <c r="I65" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="J65" s="191" t="s">
+      <c r="J65" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="K65" s="150" t="s">
+      <c r="K65" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="150" t="s">
+      <c r="L65" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="150" t="s">
+      <c r="M65" s="162" t="s">
         <v>32</v>
       </c>
       <c r="N65" s="69" t="s">
@@ -14326,36 +14354,36 @@
       </c>
       <c r="O65" s="69"/>
       <c r="P65" s="69"/>
-      <c r="Q65" s="191" t="s">
+      <c r="Q65" s="190" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B66" s="137"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="191"/>
-      <c r="J66" s="191"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="150"/>
-      <c r="N66" s="133" t="s">
+      <c r="B66" s="134"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="162"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="162"/>
+      <c r="I66" s="190"/>
+      <c r="J66" s="190"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="O66" s="133" t="s">
+      <c r="O66" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="P66" s="133" t="s">
+      <c r="P66" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="Q66" s="191"/>
+      <c r="Q66" s="190"/>
     </row>
     <row r="67" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B67" s="137"/>
+      <c r="B67" s="134"/>
       <c r="C67" s="7">
         <v>1</v>
       </c>
@@ -14403,7 +14431,7 @@
       </c>
     </row>
     <row r="68" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B68" s="137"/>
+      <c r="B68" s="134"/>
       <c r="C68" s="7">
         <v>2</v>
       </c>
@@ -14451,7 +14479,7 @@
       </c>
     </row>
     <row r="69" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B69" s="137"/>
+      <c r="B69" s="134"/>
       <c r="C69" s="7">
         <v>3</v>
       </c>
@@ -14476,7 +14504,7 @@
       <c r="J69" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K69" s="134" t="s">
+      <c r="K69" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L69" s="7" t="s">
@@ -14499,7 +14527,7 @@
       </c>
     </row>
     <row r="70" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B70" s="137"/>
+      <c r="B70" s="134"/>
       <c r="C70" s="7">
         <v>4</v>
       </c>
@@ -14524,7 +14552,7 @@
       <c r="J70" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="134" t="s">
+      <c r="K70" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L70" s="7" t="s">
@@ -14547,7 +14575,7 @@
       </c>
     </row>
     <row r="71" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B71" s="137"/>
+      <c r="B71" s="134"/>
       <c r="C71" s="7">
         <v>5</v>
       </c>
@@ -14572,7 +14600,7 @@
       <c r="J71" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K71" s="134" t="s">
+      <c r="K71" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L71" s="7" t="s">
@@ -14595,7 +14623,7 @@
       </c>
     </row>
     <row r="72" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B72" s="137"/>
+      <c r="B72" s="134"/>
       <c r="C72" s="7">
         <v>6</v>
       </c>
@@ -14620,7 +14648,7 @@
       <c r="J72" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K72" s="134" t="s">
+      <c r="K72" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L72" s="7" t="s">
@@ -14643,7 +14671,7 @@
       </c>
     </row>
     <row r="73" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B73" s="137"/>
+      <c r="B73" s="134"/>
       <c r="C73" s="7">
         <v>7</v>
       </c>
@@ -14668,7 +14696,7 @@
       <c r="J73" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K73" s="134" t="s">
+      <c r="K73" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L73" s="7" t="s">
@@ -14691,7 +14719,7 @@
       </c>
     </row>
     <row r="74" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B74" s="137"/>
+      <c r="B74" s="134"/>
       <c r="C74" s="7">
         <v>8</v>
       </c>
@@ -14716,7 +14744,7 @@
       <c r="J74" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K74" s="134" t="s">
+      <c r="K74" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L74" s="7" t="s">
@@ -14739,7 +14767,7 @@
       </c>
     </row>
     <row r="75" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="137"/>
+      <c r="B75" s="134"/>
       <c r="C75" s="7">
         <v>9</v>
       </c>
@@ -14764,7 +14792,7 @@
       <c r="J75" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="134" t="s">
+      <c r="K75" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L75" s="7" t="s">
@@ -14787,7 +14815,7 @@
       </c>
     </row>
     <row r="76" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B76" s="137"/>
+      <c r="B76" s="134"/>
       <c r="C76" s="7">
         <v>10</v>
       </c>
@@ -14812,7 +14840,7 @@
       <c r="J76" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K76" s="134" t="s">
+      <c r="K76" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L76" s="7" t="s">
@@ -14835,7 +14863,7 @@
       </c>
     </row>
     <row r="77" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B77" s="137"/>
+      <c r="B77" s="134"/>
       <c r="C77" s="7">
         <v>11</v>
       </c>
@@ -14860,7 +14888,7 @@
       <c r="J77" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K77" s="134" t="s">
+      <c r="K77" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L77" s="7" t="s">
@@ -14883,7 +14911,7 @@
       </c>
     </row>
     <row r="78" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B78" s="137"/>
+      <c r="B78" s="134"/>
       <c r="C78" s="7">
         <v>12</v>
       </c>
@@ -14908,7 +14936,7 @@
       <c r="J78" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K78" s="134" t="s">
+      <c r="K78" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L78" s="7" t="s">
@@ -14931,7 +14959,7 @@
       </c>
     </row>
     <row r="79" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B79" s="137"/>
+      <c r="B79" s="134"/>
       <c r="C79" s="7">
         <v>13</v>
       </c>
@@ -14956,7 +14984,7 @@
       <c r="J79" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K79" s="134" t="s">
+      <c r="K79" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L79" s="7" t="s">
@@ -14979,7 +15007,7 @@
       </c>
     </row>
     <row r="80" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B80" s="137"/>
+      <c r="B80" s="134"/>
       <c r="C80" s="7">
         <v>14</v>
       </c>
@@ -15004,7 +15032,7 @@
       <c r="J80" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K80" s="134" t="s">
+      <c r="K80" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L80" s="7" t="s">
@@ -15027,7 +15055,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B81" s="137"/>
+      <c r="B81" s="134"/>
       <c r="C81" s="7">
         <v>15</v>
       </c>
@@ -15052,7 +15080,7 @@
       <c r="J81" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K81" s="134" t="s">
+      <c r="K81" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L81" s="7" t="s">
@@ -15075,7 +15103,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B82" s="137"/>
+      <c r="B82" s="134"/>
       <c r="C82" s="7">
         <v>16</v>
       </c>
@@ -15100,7 +15128,7 @@
       <c r="J82" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K82" s="134" t="s">
+      <c r="K82" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L82" s="7" t="s">
@@ -15123,7 +15151,7 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B83" s="137"/>
+      <c r="B83" s="134"/>
       <c r="C83" s="7">
         <v>17</v>
       </c>
@@ -15148,7 +15176,7 @@
       <c r="J83" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K83" s="134" t="s">
+      <c r="K83" s="131" t="s">
         <v>575</v>
       </c>
       <c r="L83" s="7" t="s">
@@ -15166,7 +15194,7 @@
       <c r="P83" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q83" s="138" t="s">
+      <c r="Q83" s="135" t="s">
         <v>570</v>
       </c>
     </row>
@@ -15203,6 +15231,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I27:I28"/>
@@ -15219,38 +15279,6 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15327,14 +15355,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="179">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43712</v>
       </c>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="188"/>
+      <c r="AJ1" s="184"/>
+      <c r="AK1" s="184"/>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="185"/>
       <c r="AN1" s="32" t="s">
         <v>24</v>
       </c>
@@ -15343,16 +15371,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="182" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="185"/>
-      <c r="AW1" s="185"/>
-      <c r="AX1" s="185"/>
-      <c r="AY1" s="185"/>
-      <c r="AZ1" s="186"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="183"/>
     </row>
     <row r="2" spans="1:52" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -15380,32 +15408,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="190" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>進捗管理</v>
       </c>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="188"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="185"/>
       <c r="AE2" s="32" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="186"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="183"/>
       <c r="AN2" s="32" t="s">
         <v>25</v>
       </c>
@@ -15414,13 +15442,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="185"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="186"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -16463,7 +16491,7 @@
       <c r="W25" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X25" s="128" t="s">
+      <c r="X25" s="125" t="s">
         <v>451</v>
       </c>
       <c r="Y25" s="96"/>
@@ -17223,7 +17251,7 @@
       <c r="W41" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X41" s="128" t="s">
+      <c r="X41" s="125" t="s">
         <v>452</v>
       </c>
       <c r="Y41" s="96"/>
@@ -17983,7 +18011,7 @@
       <c r="W57" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X57" s="128" t="s">
+      <c r="X57" s="125" t="s">
         <v>453</v>
       </c>
       <c r="Y57" s="96"/>
@@ -19173,7 +19201,7 @@
       <c r="S82" s="97"/>
       <c r="T82" s="97"/>
       <c r="U82" s="97"/>
-      <c r="V82" s="122"/>
+      <c r="V82" s="119"/>
       <c r="W82" s="97"/>
       <c r="X82" s="22"/>
       <c r="Y82" s="22"/>
@@ -19461,7 +19489,7 @@
       <c r="S88" s="97"/>
       <c r="T88" s="97"/>
       <c r="U88" s="97"/>
-      <c r="V88" s="122"/>
+      <c r="V88" s="119"/>
       <c r="W88" s="97"/>
       <c r="X88" s="22"/>
       <c r="Y88" s="22"/>
@@ -19701,7 +19729,7 @@
       <c r="S93" s="97"/>
       <c r="T93" s="97"/>
       <c r="U93" s="97"/>
-      <c r="V93" s="122"/>
+      <c r="V93" s="119"/>
       <c r="W93" s="97"/>
       <c r="X93" s="22"/>
       <c r="Y93" s="22"/>
@@ -19941,7 +19969,7 @@
       <c r="S98" s="97"/>
       <c r="T98" s="97"/>
       <c r="U98" s="97"/>
-      <c r="V98" s="122"/>
+      <c r="V98" s="119"/>
       <c r="W98" s="97"/>
       <c r="X98" s="22"/>
       <c r="Y98" s="22"/>
@@ -20229,7 +20257,7 @@
       <c r="S104" s="97"/>
       <c r="T104" s="97"/>
       <c r="U104" s="97"/>
-      <c r="V104" s="122"/>
+      <c r="V104" s="119"/>
       <c r="W104" s="97"/>
       <c r="X104" s="22"/>
       <c r="Y104" s="22"/>
@@ -20325,7 +20353,7 @@
       <c r="S106" s="97"/>
       <c r="T106" s="97"/>
       <c r="U106" s="97"/>
-      <c r="V106" s="122"/>
+      <c r="V106" s="119"/>
       <c r="W106" s="97"/>
       <c r="X106" s="22"/>
       <c r="Y106" s="22"/>
@@ -20659,28 +20687,28 @@
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
       <c r="L113" s="72"/>
-      <c r="N113" s="142" t="s">
+      <c r="N113" s="139" t="s">
         <v>378</v>
       </c>
-      <c r="O113" s="142"/>
-      <c r="P113" s="142"/>
-      <c r="Q113" s="142"/>
-      <c r="R113" s="142"/>
-      <c r="S113" s="142"/>
-      <c r="T113" s="142"/>
-      <c r="U113" s="142"/>
-      <c r="V113" s="142"/>
-      <c r="W113" s="142"/>
-      <c r="X113" s="143"/>
-      <c r="Y113" s="143"/>
-      <c r="Z113" s="143"/>
-      <c r="AA113" s="143"/>
-      <c r="AB113" s="143"/>
-      <c r="AC113" s="143"/>
-      <c r="AD113" s="143"/>
-      <c r="AE113" s="143"/>
-      <c r="AF113" s="143"/>
-      <c r="AG113" s="143"/>
+      <c r="O113" s="139"/>
+      <c r="P113" s="139"/>
+      <c r="Q113" s="139"/>
+      <c r="R113" s="139"/>
+      <c r="S113" s="139"/>
+      <c r="T113" s="139"/>
+      <c r="U113" s="139"/>
+      <c r="V113" s="139"/>
+      <c r="W113" s="139"/>
+      <c r="X113" s="140"/>
+      <c r="Y113" s="140"/>
+      <c r="Z113" s="140"/>
+      <c r="AA113" s="140"/>
+      <c r="AB113" s="140"/>
+      <c r="AC113" s="140"/>
+      <c r="AD113" s="140"/>
+      <c r="AE113" s="140"/>
+      <c r="AF113" s="140"/>
+      <c r="AG113" s="140"/>
       <c r="AH113" s="22"/>
       <c r="AI113" s="22"/>
       <c r="AJ113" s="22"/>
@@ -20707,32 +20735,32 @@
       <c r="J114" s="22"/>
       <c r="K114" s="22"/>
       <c r="L114" s="72"/>
-      <c r="N114" s="142"/>
-      <c r="O114" s="142" t="s">
+      <c r="N114" s="139"/>
+      <c r="O114" s="139" t="s">
         <v>496</v>
       </c>
-      <c r="P114" s="142"/>
-      <c r="Q114" s="142"/>
-      <c r="R114" s="142"/>
-      <c r="S114" s="142"/>
-      <c r="T114" s="142"/>
-      <c r="U114" s="142"/>
-      <c r="V114" s="142"/>
-      <c r="W114" s="144" t="s">
+      <c r="P114" s="139"/>
+      <c r="Q114" s="139"/>
+      <c r="R114" s="139"/>
+      <c r="S114" s="139"/>
+      <c r="T114" s="139"/>
+      <c r="U114" s="139"/>
+      <c r="V114" s="139"/>
+      <c r="W114" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="X114" s="143" t="s">
+      <c r="X114" s="140" t="s">
         <v>473</v>
       </c>
-      <c r="Y114" s="143"/>
-      <c r="Z114" s="143"/>
-      <c r="AA114" s="143"/>
-      <c r="AB114" s="143"/>
-      <c r="AC114" s="143"/>
-      <c r="AD114" s="143"/>
-      <c r="AE114" s="143"/>
-      <c r="AF114" s="143"/>
-      <c r="AG114" s="143"/>
+      <c r="Y114" s="140"/>
+      <c r="Z114" s="140"/>
+      <c r="AA114" s="140"/>
+      <c r="AB114" s="140"/>
+      <c r="AC114" s="140"/>
+      <c r="AD114" s="140"/>
+      <c r="AE114" s="140"/>
+      <c r="AF114" s="140"/>
+      <c r="AG114" s="140"/>
       <c r="AH114" s="22"/>
       <c r="AI114" s="22"/>
       <c r="AJ114" s="22"/>
@@ -20759,32 +20787,32 @@
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="72"/>
-      <c r="N115" s="142"/>
-      <c r="O115" s="142" t="s">
+      <c r="N115" s="139"/>
+      <c r="O115" s="139" t="s">
         <v>497</v>
       </c>
-      <c r="P115" s="142"/>
-      <c r="Q115" s="142"/>
-      <c r="R115" s="142"/>
-      <c r="S115" s="142"/>
-      <c r="T115" s="142"/>
-      <c r="U115" s="142"/>
-      <c r="V115" s="142"/>
-      <c r="W115" s="144" t="s">
+      <c r="P115" s="139"/>
+      <c r="Q115" s="139"/>
+      <c r="R115" s="139"/>
+      <c r="S115" s="139"/>
+      <c r="T115" s="139"/>
+      <c r="U115" s="139"/>
+      <c r="V115" s="139"/>
+      <c r="W115" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="X115" s="143" t="s">
+      <c r="X115" s="140" t="s">
         <v>498</v>
       </c>
-      <c r="Y115" s="143"/>
-      <c r="Z115" s="143"/>
-      <c r="AA115" s="143"/>
-      <c r="AB115" s="143"/>
-      <c r="AC115" s="143"/>
-      <c r="AD115" s="143"/>
-      <c r="AE115" s="143"/>
-      <c r="AF115" s="143"/>
-      <c r="AG115" s="143"/>
+      <c r="Y115" s="140"/>
+      <c r="Z115" s="140"/>
+      <c r="AA115" s="140"/>
+      <c r="AB115" s="140"/>
+      <c r="AC115" s="140"/>
+      <c r="AD115" s="140"/>
+      <c r="AE115" s="140"/>
+      <c r="AF115" s="140"/>
+      <c r="AG115" s="140"/>
       <c r="AH115" s="22"/>
       <c r="AI115" s="22"/>
       <c r="AJ115" s="22"/>
@@ -20811,32 +20839,32 @@
       <c r="J116" s="22"/>
       <c r="K116" s="22"/>
       <c r="L116" s="72"/>
-      <c r="N116" s="142"/>
-      <c r="O116" s="142" t="s">
+      <c r="N116" s="139"/>
+      <c r="O116" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="P116" s="142"/>
-      <c r="Q116" s="142"/>
-      <c r="R116" s="142"/>
-      <c r="S116" s="142"/>
-      <c r="T116" s="142"/>
-      <c r="U116" s="142"/>
-      <c r="V116" s="142"/>
-      <c r="W116" s="144" t="s">
+      <c r="P116" s="139"/>
+      <c r="Q116" s="139"/>
+      <c r="R116" s="139"/>
+      <c r="S116" s="139"/>
+      <c r="T116" s="139"/>
+      <c r="U116" s="139"/>
+      <c r="V116" s="139"/>
+      <c r="W116" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="X116" s="143" t="s">
+      <c r="X116" s="140" t="s">
         <v>499</v>
       </c>
-      <c r="Y116" s="143"/>
-      <c r="Z116" s="143"/>
-      <c r="AA116" s="143"/>
-      <c r="AB116" s="143"/>
-      <c r="AC116" s="143"/>
-      <c r="AD116" s="143"/>
-      <c r="AE116" s="143"/>
-      <c r="AF116" s="143"/>
-      <c r="AG116" s="143"/>
+      <c r="Y116" s="140"/>
+      <c r="Z116" s="140"/>
+      <c r="AA116" s="140"/>
+      <c r="AB116" s="140"/>
+      <c r="AC116" s="140"/>
+      <c r="AD116" s="140"/>
+      <c r="AE116" s="140"/>
+      <c r="AF116" s="140"/>
+      <c r="AG116" s="140"/>
       <c r="AH116" s="22"/>
       <c r="AI116" s="22"/>
       <c r="AJ116" s="22"/>
@@ -22164,7 +22192,7 @@
       <c r="K145" s="22"/>
       <c r="L145" s="72"/>
       <c r="N145" s="97"/>
-      <c r="O145" s="130" t="s">
+      <c r="O145" s="127" t="s">
         <v>488</v>
       </c>
       <c r="P145" s="97"/>
@@ -22216,7 +22244,7 @@
       <c r="K146" s="22"/>
       <c r="L146" s="72"/>
       <c r="N146" s="97"/>
-      <c r="O146" s="130" t="s">
+      <c r="O146" s="127" t="s">
         <v>489</v>
       </c>
       <c r="P146" s="97"/>
@@ -22229,7 +22257,7 @@
       <c r="W146" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X146" s="135" t="s">
+      <c r="X146" s="132" t="s">
         <v>474</v>
       </c>
       <c r="Y146" s="22"/>
@@ -22832,7 +22860,7 @@
       <c r="W158" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X158" s="128" t="s">
+      <c r="X158" s="125" t="s">
         <v>390</v>
       </c>
       <c r="Y158" s="96"/>
@@ -22883,7 +22911,7 @@
       <c r="W159" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="X159" s="128"/>
+      <c r="X159" s="125"/>
       <c r="Y159" s="96"/>
       <c r="Z159" s="96"/>
       <c r="AA159" s="22"/>
@@ -22935,7 +22963,7 @@
       <c r="W160" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X160" s="128" t="s">
+      <c r="X160" s="125" t="s">
         <v>393</v>
       </c>
       <c r="Y160" s="22"/>
@@ -22989,7 +23017,7 @@
       <c r="W161" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X161" s="128" t="s">
+      <c r="X161" s="125" t="s">
         <v>394</v>
       </c>
       <c r="Y161" s="22"/>
@@ -23043,7 +23071,7 @@
       <c r="W162" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X162" s="128" t="s">
+      <c r="X162" s="125" t="s">
         <v>395</v>
       </c>
       <c r="Y162" s="22"/>
@@ -23097,7 +23125,7 @@
       <c r="W163" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X163" s="128" t="s">
+      <c r="X163" s="125" t="s">
         <v>396</v>
       </c>
       <c r="Y163" s="22"/>
@@ -23151,7 +23179,7 @@
       <c r="W164" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X164" s="128" t="s">
+      <c r="X164" s="125" t="s">
         <v>397</v>
       </c>
       <c r="Y164" s="22"/>
@@ -23205,7 +23233,7 @@
       <c r="W165" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="X165" s="128" t="s">
+      <c r="X165" s="125" t="s">
         <v>435</v>
       </c>
       <c r="Y165" s="22"/>
@@ -23259,7 +23287,7 @@
       <c r="W166" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X166" s="128" t="s">
+      <c r="X166" s="125" t="s">
         <v>573</v>
       </c>
       <c r="Y166" s="22"/>
@@ -24383,14 +24411,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="179">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43712</v>
       </c>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="188"/>
+      <c r="AJ1" s="184"/>
+      <c r="AK1" s="184"/>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="185"/>
       <c r="AN1" s="32" t="s">
         <v>24</v>
       </c>
@@ -24399,16 +24427,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="182" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="185"/>
-      <c r="AW1" s="185"/>
-      <c r="AX1" s="185"/>
-      <c r="AY1" s="185"/>
-      <c r="AZ1" s="186"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="183"/>
     </row>
     <row r="2" spans="1:52" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -24436,32 +24464,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="190" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>進捗管理</v>
       </c>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="188"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="185"/>
       <c r="AE2" s="32" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="186"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="183"/>
       <c r="AN2" s="32" t="s">
         <v>25</v>
       </c>
@@ -24470,13 +24498,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="185"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="186"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -29648,14 +29676,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="179">
+      <c r="AI1" s="170">
         <f>変更履歴!E5</f>
         <v>43712</v>
       </c>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="188"/>
+      <c r="AJ1" s="184"/>
+      <c r="AK1" s="184"/>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="185"/>
       <c r="AN1" s="32" t="s">
         <v>24</v>
       </c>
@@ -29664,16 +29692,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="182" t="str">
+      <c r="AT1" s="173" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="185"/>
-      <c r="AW1" s="185"/>
-      <c r="AX1" s="185"/>
-      <c r="AY1" s="185"/>
-      <c r="AZ1" s="186"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="183"/>
     </row>
     <row r="2" spans="1:52" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -29701,32 +29729,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="190" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>進捗管理</v>
       </c>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="188"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="185"/>
       <c r="AE2" s="32" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="186"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="183"/>
       <c r="AN2" s="32" t="s">
         <v>25</v>
       </c>
@@ -29735,13 +29763,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="185"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="186"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -30051,30 +30079,30 @@
       <c r="J9" s="110" t="s">
         <v>414</v>
       </c>
-      <c r="K9" s="194" t="s">
+      <c r="K9" s="191" t="s">
+        <v>442</v>
+      </c>
+      <c r="L9" s="192"/>
+      <c r="M9" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="L9" s="195"/>
-      <c r="M9" s="194" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="191" t="s">
         <v>441</v>
       </c>
-      <c r="N9" s="195"/>
-      <c r="O9" s="194" t="s">
-        <v>442</v>
-      </c>
-      <c r="P9" s="195"/>
+      <c r="P9" s="192"/>
     </row>
     <row r="10" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
       <c r="K10" s="196"/>
       <c r="L10" s="197"/>
       <c r="M10" s="196"/>
@@ -30083,1234 +30111,1234 @@
       <c r="P10" s="197"/>
     </row>
     <row r="11" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
     </row>
     <row r="12" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121" t="s">
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121" t="s">
+      <c r="L12" s="201"/>
+      <c r="M12" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121" t="s">
+      <c r="N12" s="201"/>
+      <c r="O12" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
     </row>
     <row r="13" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121" t="s">
+      <c r="L13" s="118"/>
+      <c r="M13" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121" t="s">
+      <c r="N13" s="118"/>
+      <c r="O13" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
     </row>
     <row r="14" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121" t="s">
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121" t="s">
+      <c r="L14" s="205"/>
+      <c r="M14" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121" t="s">
+      <c r="N14" s="205"/>
+      <c r="O14" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
     </row>
     <row r="15" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
     </row>
     <row r="16" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121" t="s">
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121" t="s">
+      <c r="L16" s="201"/>
+      <c r="M16" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121" t="s">
+      <c r="N16" s="201"/>
+      <c r="O16" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
     </row>
     <row r="17" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="129" t="s">
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129" t="s">
+      <c r="L17" s="126"/>
+      <c r="M17" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="126"/>
+      <c r="O17" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="129" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129" t="s">
+      <c r="L18" s="126"/>
+      <c r="M18" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129" t="s">
+      <c r="N18" s="126"/>
+      <c r="O18" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
     </row>
     <row r="19" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="129" t="s">
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129" t="s">
+      <c r="L19" s="126"/>
+      <c r="M19" s="126" t="s">
+        <v>282</v>
+      </c>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129" t="s">
-        <v>282</v>
-      </c>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
     </row>
     <row r="20" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121" t="s">
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121" t="s">
+      <c r="L20" s="118"/>
+      <c r="M20" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121" t="s">
+      <c r="N20" s="118"/>
+      <c r="O20" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
     </row>
     <row r="21" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="115" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121" t="s">
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121" t="s">
+      <c r="L21" s="118"/>
+      <c r="M21" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121" t="s">
+      <c r="N21" s="118"/>
+      <c r="O21" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
     </row>
     <row r="22" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="121" t="s">
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121" t="s">
+      <c r="N22" s="118"/>
+      <c r="O22" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121" t="s">
+      <c r="P22" s="118"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+    </row>
+    <row r="23" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-    </row>
-    <row r="23" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="129" t="s">
+      <c r="L23" s="126"/>
+      <c r="M23" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129" t="s">
+      <c r="N23" s="126"/>
+      <c r="O23" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129" t="s">
+      <c r="P23" s="126"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+    </row>
+    <row r="24" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="205" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="205"/>
+      <c r="M24" s="206" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-    </row>
-    <row r="24" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="118" t="s">
-        <v>277</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="129" t="s">
+      <c r="N24" s="206"/>
+      <c r="O24" s="205" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+    </row>
+    <row r="25" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+    </row>
+    <row r="26" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="121" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-    </row>
-    <row r="25" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="114" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-    </row>
-    <row r="26" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121" t="s">
+      <c r="L26" s="201"/>
+      <c r="M26" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121" t="s">
+      <c r="N26" s="201"/>
+      <c r="O26" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121" t="s">
+      <c r="P26" s="201"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+    </row>
+    <row r="27" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="115" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-    </row>
-    <row r="27" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="121" t="s">
+      <c r="L27" s="118"/>
+      <c r="M27" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121" t="s">
+      <c r="N27" s="118"/>
+      <c r="O27" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121" t="s">
+      <c r="P27" s="118"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+    </row>
+    <row r="28" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-    </row>
-    <row r="28" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="121" t="s">
+      <c r="L28" s="118"/>
+      <c r="M28" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121" t="s">
+      <c r="N28" s="118"/>
+      <c r="O28" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121" t="s">
+      <c r="P28" s="118"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+    </row>
+    <row r="29" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="115" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-    </row>
-    <row r="29" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="118" t="s">
-        <v>339</v>
-      </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="121" t="s">
+      <c r="L29" s="118"/>
+      <c r="M29" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121" t="s">
+      <c r="N29" s="118"/>
+      <c r="O29" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121" t="s">
+      <c r="P29" s="118"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+    </row>
+    <row r="30" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="115" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-    </row>
-    <row r="30" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121" t="s">
+      <c r="L30" s="118"/>
+      <c r="M30" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121" t="s">
+      <c r="N30" s="118"/>
+      <c r="O30" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
     </row>
     <row r="31" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="121" t="s">
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121" t="s">
+      <c r="L31" s="118"/>
+      <c r="M31" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121" t="s">
+      <c r="P31" s="118"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+    </row>
+    <row r="32" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-    </row>
-    <row r="32" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="121" t="s">
+      <c r="L32" s="118"/>
+      <c r="M32" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121" t="s">
+      <c r="N32" s="118"/>
+      <c r="O32" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121" t="s">
+      <c r="P32" s="118"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+    </row>
+    <row r="33" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-    </row>
-    <row r="33" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="118" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="121" t="s">
+      <c r="L33" s="118"/>
+      <c r="M33" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121" t="s">
+      <c r="N33" s="118"/>
+      <c r="O33" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121" t="s">
+      <c r="P33" s="118"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+    </row>
+    <row r="34" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="115" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-    </row>
-    <row r="34" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="121" t="s">
+      <c r="P34" s="118"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+    </row>
+    <row r="35" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="137" t="s">
+        <v>566</v>
+      </c>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121" t="s">
+      <c r="L35" s="118"/>
+      <c r="M35" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121" t="s">
+      <c r="P35" s="118"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+    </row>
+    <row r="36" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="131"/>
-    </row>
-    <row r="35" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="140" t="s">
-        <v>566</v>
-      </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="121" t="s">
+      <c r="L36" s="118"/>
+      <c r="M36" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121" t="s">
+      <c r="P36" s="118"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+    </row>
+    <row r="37" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121" t="s">
+      <c r="P37" s="118"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+    </row>
+    <row r="38" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="115" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-    </row>
-    <row r="36" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="121" t="s">
+      <c r="L38" s="118"/>
+      <c r="M38" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121" t="s">
+      <c r="P38" s="118"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+    </row>
+    <row r="39" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121" t="s">
+      <c r="L39" s="118"/>
+      <c r="M39" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-    </row>
-    <row r="37" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="121" t="s">
+      <c r="N39" s="118"/>
+      <c r="O39" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+    </row>
+    <row r="40" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="128"/>
+      <c r="R40" s="128"/>
+    </row>
+    <row r="41" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121" t="s">
+      <c r="N41" s="118"/>
+      <c r="O41" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+    </row>
+    <row r="42" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121" t="s">
+      <c r="L42" s="118"/>
+      <c r="M42" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-    </row>
-    <row r="38" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="118" t="s">
-        <v>446</v>
-      </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="121" t="s">
+      <c r="N42" s="118"/>
+      <c r="O42" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121" t="s">
+      <c r="P42" s="118"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+    </row>
+    <row r="43" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L43" s="118"/>
+      <c r="M43" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121" t="s">
+      <c r="N43" s="118"/>
+      <c r="O43" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+    </row>
+    <row r="44" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="L44" s="118"/>
+      <c r="M44" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+    </row>
+    <row r="45" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="L45" s="118"/>
+      <c r="M45" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+    </row>
+    <row r="46" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-    </row>
-    <row r="39" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="118" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="121" t="s">
+      <c r="N46" s="118"/>
+      <c r="O46" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121" t="s">
+      <c r="P46" s="118"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+    </row>
+    <row r="47" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121" t="s">
+      <c r="P47" s="118"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+    </row>
+    <row r="48" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-    </row>
-    <row r="40" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="121" t="s">
+      <c r="L48" s="118"/>
+      <c r="M48" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121" t="s">
+      <c r="P48" s="118"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+    </row>
+    <row r="49" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L49" s="118"/>
+      <c r="M49" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N40" s="121"/>
-      <c r="O40" s="121" t="s">
+      <c r="N49" s="118"/>
+      <c r="O49" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="128"/>
+    </row>
+    <row r="50" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L50" s="118"/>
+      <c r="M50" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-    </row>
-    <row r="41" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="121" t="s">
+      <c r="N50" s="118"/>
+      <c r="O50" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121" t="s">
+      <c r="P50" s="118"/>
+      <c r="Q50" s="128"/>
+      <c r="R50" s="128"/>
+    </row>
+    <row r="51" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="115" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121" t="s">
+      <c r="L51" s="118"/>
+      <c r="M51" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
-    </row>
-    <row r="42" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="118" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="121" t="s">
+      <c r="N51" s="118"/>
+      <c r="O51" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121" t="s">
+      <c r="P51" s="118"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+    </row>
+    <row r="52" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="115" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="N42" s="121"/>
-      <c r="O42" s="121" t="s">
+      <c r="L52" s="118"/>
+      <c r="M52" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-    </row>
-    <row r="43" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="121" t="s">
+      <c r="N52" s="118"/>
+      <c r="O52" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+    </row>
+    <row r="53" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L53" s="118"/>
+      <c r="M53" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121" t="s">
+      <c r="N53" s="118"/>
+      <c r="O53" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+    </row>
+    <row r="54" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121" t="s">
+      <c r="L54" s="118"/>
+      <c r="M54" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="N54" s="118"/>
+      <c r="O54" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+    </row>
+    <row r="55" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="131"/>
-      <c r="R43" s="131"/>
-    </row>
-    <row r="44" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="121" t="s">
+      <c r="L55" s="118"/>
+      <c r="M55" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N55" s="118"/>
+      <c r="O55" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121" t="s">
+      <c r="P55" s="118"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+    </row>
+    <row r="56" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121" t="s">
+      <c r="L56" s="118"/>
+      <c r="M56" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="131"/>
-      <c r="R44" s="131"/>
-    </row>
-    <row r="45" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="121" t="s">
+      <c r="P56" s="118"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+    </row>
+    <row r="57" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121" t="s">
+      <c r="L57" s="118"/>
+      <c r="M57" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121" t="s">
+      <c r="N57" s="118"/>
+      <c r="O57" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="131"/>
-    </row>
-    <row r="46" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="L46" s="121"/>
-      <c r="M46" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121" t="s">
+      <c r="P57" s="118"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+    </row>
+    <row r="58" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="131"/>
-      <c r="R46" s="131"/>
-    </row>
-    <row r="47" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="L47" s="121"/>
-      <c r="M47" s="121" t="s">
+      <c r="L58" s="118"/>
+      <c r="M58" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="131"/>
-      <c r="R47" s="131"/>
-    </row>
-    <row r="48" spans="3:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121" t="s">
+      <c r="N58" s="118"/>
+      <c r="O58" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="131"/>
-      <c r="R48" s="131"/>
-    </row>
-    <row r="49" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L49" s="121"/>
-      <c r="M49" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="131"/>
-      <c r="R49" s="131"/>
-    </row>
-    <row r="50" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="118" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L50" s="121"/>
-      <c r="M50" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="131"/>
-      <c r="R50" s="131"/>
-    </row>
-    <row r="51" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="118" t="s">
-        <v>341</v>
-      </c>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="N51" s="121"/>
-      <c r="O51" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="131"/>
-      <c r="R51" s="131"/>
-    </row>
-    <row r="52" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L52" s="121"/>
-      <c r="M52" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="N52" s="121"/>
-      <c r="O52" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P52" s="121"/>
-      <c r="Q52" s="131"/>
-      <c r="R52" s="131"/>
-    </row>
-    <row r="53" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
-    </row>
-    <row r="54" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L54" s="121"/>
-      <c r="M54" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="N54" s="121"/>
-      <c r="O54" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="P54" s="121"/>
-      <c r="Q54" s="131"/>
-      <c r="R54" s="131"/>
-    </row>
-    <row r="55" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="118" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="P55" s="121"/>
-      <c r="Q55" s="131"/>
-      <c r="R55" s="131"/>
-    </row>
-    <row r="56" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="118" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="L56" s="121"/>
-      <c r="M56" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="N56" s="121"/>
-      <c r="O56" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="P56" s="121"/>
-      <c r="Q56" s="131"/>
-      <c r="R56" s="131"/>
-    </row>
-    <row r="57" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L57" s="121"/>
-      <c r="M57" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="N57" s="121"/>
-      <c r="O57" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="131"/>
-      <c r="R57" s="131"/>
-    </row>
-    <row r="58" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="131"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
     </row>
     <row r="59" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C59" s="104"/>
@@ -31327,190 +31355,190 @@
       <c r="N59" s="100"/>
     </row>
     <row r="60" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="123" t="s">
+      <c r="C60" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="123" t="s">
+      <c r="D60" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="123"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="123"/>
-      <c r="O60" s="123"/>
-      <c r="P60" s="123"/>
-      <c r="Q60" s="123"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="123"/>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
-      <c r="V60" s="123"/>
-      <c r="W60" s="123"/>
-      <c r="X60" s="123"/>
-      <c r="Y60" s="123"/>
-      <c r="Z60" s="123"/>
-      <c r="AA60" s="123"/>
-      <c r="AB60" s="123"/>
-      <c r="AC60" s="123"/>
-      <c r="AD60" s="123"/>
-      <c r="AE60" s="123"/>
-      <c r="AF60" s="123"/>
-      <c r="AG60" s="123"/>
-      <c r="AH60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="120"/>
+      <c r="W60" s="120"/>
+      <c r="X60" s="120"/>
+      <c r="Y60" s="120"/>
+      <c r="Z60" s="120"/>
+      <c r="AA60" s="120"/>
+      <c r="AB60" s="120"/>
+      <c r="AC60" s="120"/>
+      <c r="AD60" s="120"/>
+      <c r="AE60" s="120"/>
+      <c r="AF60" s="120"/>
+      <c r="AG60" s="120"/>
+      <c r="AH60" s="120"/>
     </row>
     <row r="61" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="123"/>
-      <c r="D61" s="123" t="s">
+      <c r="C61" s="120"/>
+      <c r="D61" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="123"/>
-      <c r="N61" s="123"/>
-      <c r="O61" s="123"/>
-      <c r="P61" s="123"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123"/>
-      <c r="W61" s="123"/>
-      <c r="X61" s="123"/>
-      <c r="Y61" s="123"/>
-      <c r="Z61" s="123"/>
-      <c r="AA61" s="123"/>
-      <c r="AB61" s="123"/>
-      <c r="AC61" s="123"/>
-      <c r="AD61" s="123"/>
-      <c r="AE61" s="123"/>
-      <c r="AF61" s="123"/>
-      <c r="AG61" s="123"/>
-      <c r="AH61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="120"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="120"/>
+      <c r="S61" s="120"/>
+      <c r="T61" s="120"/>
+      <c r="U61" s="120"/>
+      <c r="V61" s="120"/>
+      <c r="W61" s="120"/>
+      <c r="X61" s="120"/>
+      <c r="Y61" s="120"/>
+      <c r="Z61" s="120"/>
+      <c r="AA61" s="120"/>
+      <c r="AB61" s="120"/>
+      <c r="AC61" s="120"/>
+      <c r="AD61" s="120"/>
+      <c r="AE61" s="120"/>
+      <c r="AF61" s="120"/>
+      <c r="AG61" s="120"/>
+      <c r="AH61" s="120"/>
     </row>
     <row r="62" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="123"/>
-      <c r="D62" s="123" t="s">
+      <c r="C62" s="120"/>
+      <c r="D62" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="123"/>
-      <c r="M62" s="123"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="123"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
-      <c r="U62" s="123"/>
-      <c r="V62" s="123"/>
-      <c r="W62" s="123"/>
-      <c r="X62" s="123"/>
-      <c r="Y62" s="123"/>
-      <c r="Z62" s="123"/>
-      <c r="AA62" s="123"/>
-      <c r="AB62" s="123"/>
-      <c r="AC62" s="123"/>
-      <c r="AD62" s="123"/>
-      <c r="AE62" s="123"/>
-      <c r="AF62" s="123"/>
-      <c r="AG62" s="123"/>
-      <c r="AH62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
+      <c r="U62" s="120"/>
+      <c r="V62" s="120"/>
+      <c r="W62" s="120"/>
+      <c r="X62" s="120"/>
+      <c r="Y62" s="120"/>
+      <c r="Z62" s="120"/>
+      <c r="AA62" s="120"/>
+      <c r="AB62" s="120"/>
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="120"/>
+      <c r="AE62" s="120"/>
+      <c r="AF62" s="120"/>
+      <c r="AG62" s="120"/>
+      <c r="AH62" s="120"/>
     </row>
     <row r="63" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="123" t="s">
+      <c r="C63" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="D63" s="123" t="s">
+      <c r="D63" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="123"/>
-      <c r="I63" s="123"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="123"/>
-      <c r="M63" s="123"/>
-      <c r="N63" s="123"/>
-      <c r="O63" s="123"/>
-      <c r="P63" s="123"/>
-      <c r="Q63" s="123"/>
-      <c r="R63" s="123"/>
-      <c r="S63" s="123"/>
-      <c r="T63" s="123"/>
-      <c r="U63" s="123"/>
-      <c r="V63" s="123"/>
-      <c r="W63" s="123"/>
-      <c r="X63" s="123"/>
-      <c r="Y63" s="123"/>
-      <c r="Z63" s="123"/>
-      <c r="AA63" s="123"/>
-      <c r="AB63" s="123"/>
-      <c r="AC63" s="123"/>
-      <c r="AD63" s="123"/>
-      <c r="AE63" s="123"/>
-      <c r="AF63" s="123"/>
-      <c r="AG63" s="123"/>
-      <c r="AH63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="120"/>
+      <c r="M63" s="120"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="120"/>
+      <c r="Q63" s="120"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
+      <c r="T63" s="120"/>
+      <c r="U63" s="120"/>
+      <c r="V63" s="120"/>
+      <c r="W63" s="120"/>
+      <c r="X63" s="120"/>
+      <c r="Y63" s="120"/>
+      <c r="Z63" s="120"/>
+      <c r="AA63" s="120"/>
+      <c r="AB63" s="120"/>
+      <c r="AC63" s="120"/>
+      <c r="AD63" s="120"/>
+      <c r="AE63" s="120"/>
+      <c r="AF63" s="120"/>
+      <c r="AG63" s="120"/>
+      <c r="AH63" s="120"/>
     </row>
     <row r="64" spans="3:34" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="123" t="s">
+      <c r="C64" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="D64" s="123" t="s">
+      <c r="D64" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="123"/>
-      <c r="I64" s="123"/>
-      <c r="J64" s="123"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="123"/>
-      <c r="M64" s="123"/>
-      <c r="N64" s="123"/>
-      <c r="O64" s="123"/>
-      <c r="P64" s="123"/>
-      <c r="Q64" s="123"/>
-      <c r="R64" s="123"/>
-      <c r="S64" s="123"/>
-      <c r="T64" s="123"/>
-      <c r="U64" s="123"/>
-      <c r="V64" s="123"/>
-      <c r="W64" s="123"/>
-      <c r="X64" s="123"/>
-      <c r="Y64" s="123"/>
-      <c r="Z64" s="123"/>
-      <c r="AA64" s="123"/>
-      <c r="AB64" s="123"/>
-      <c r="AC64" s="123"/>
-      <c r="AD64" s="123"/>
-      <c r="AE64" s="123"/>
-      <c r="AF64" s="123"/>
-      <c r="AG64" s="123"/>
-      <c r="AH64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="120"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="120"/>
+      <c r="Q64" s="120"/>
+      <c r="R64" s="120"/>
+      <c r="S64" s="120"/>
+      <c r="T64" s="120"/>
+      <c r="U64" s="120"/>
+      <c r="V64" s="120"/>
+      <c r="W64" s="120"/>
+      <c r="X64" s="120"/>
+      <c r="Y64" s="120"/>
+      <c r="Z64" s="120"/>
+      <c r="AA64" s="120"/>
+      <c r="AB64" s="120"/>
+      <c r="AC64" s="120"/>
+      <c r="AD64" s="120"/>
+      <c r="AE64" s="120"/>
+      <c r="AF64" s="120"/>
+      <c r="AG64" s="120"/>
+      <c r="AH64" s="120"/>
     </row>
     <row r="65" spans="1:52" s="98" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C65" s="104"/>
@@ -42334,14 +42362,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M9:N10"/>
     <mergeCell ref="K9:L10"/>
-    <mergeCell ref="O9:P10"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -42353,12 +42381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -42516,6 +42538,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42526,15 +42554,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42552,6 +42571,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
